--- a/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-06-27.xlsx
+++ b/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-06-27.xlsx
@@ -3126,17 +3126,11 @@
     <xf numFmtId="176" fontId="44" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="44" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="45" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3148,6 +3142,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="44" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -22034,7 +22034,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22054,7 +22054,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22091,7 +22091,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22111,7 +22111,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22146,7 +22146,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22166,7 +22166,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22203,7 +22203,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22223,7 +22223,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22258,7 +22258,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22278,7 +22278,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22315,7 +22315,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22335,7 +22335,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22370,7 +22370,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22390,7 +22390,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22427,7 +22427,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22447,7 +22447,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22482,7 +22482,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22502,7 +22502,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22539,7 +22539,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22559,7 +22559,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22594,7 +22594,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22614,7 +22614,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22651,7 +22651,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22671,7 +22671,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22706,7 +22706,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22726,7 +22726,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22763,7 +22763,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22783,7 +22783,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22818,7 +22818,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22838,7 +22838,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22875,7 +22875,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22895,7 +22895,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22930,7 +22930,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22950,7 +22950,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22987,7 +22987,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23007,7 +23007,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -23042,7 +23042,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23062,7 +23062,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -23099,7 +23099,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23119,7 +23119,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -23154,7 +23154,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23174,7 +23174,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -23211,7 +23211,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23231,7 +23231,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45242,7 +45242,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45262,7 +45262,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45299,7 +45299,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45319,7 +45319,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45354,7 +45354,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45374,7 +45374,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45411,7 +45411,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45431,7 +45431,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45466,7 +45466,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45486,7 +45486,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45523,7 +45523,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45543,7 +45543,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45578,7 +45578,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45598,7 +45598,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45635,7 +45635,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45655,7 +45655,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45690,7 +45690,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45710,7 +45710,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45747,7 +45747,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45767,7 +45767,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45802,7 +45802,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45822,7 +45822,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45859,7 +45859,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45879,7 +45879,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45914,7 +45914,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45934,7 +45934,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45971,7 +45971,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45991,7 +45991,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46026,7 +46026,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46046,7 +46046,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46083,7 +46083,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46103,7 +46103,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46138,7 +46138,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46158,7 +46158,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46195,7 +46195,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46215,7 +46215,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46250,7 +46250,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46270,7 +46270,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46307,7 +46307,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46327,7 +46327,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46362,7 +46362,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46382,7 +46382,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46419,7 +46419,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46439,7 +46439,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -58158,6 +58158,88 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId756" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19992975" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1314" name="Picture 1" descr="徽标"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1315" name="Picture 2" descr="cid:b4b0667413">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId757" tgtFrame="_blank"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId758" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -58471,7 +58553,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -58524,10 +58606,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="68"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="13"/>
       <c r="F2" s="24"/>
       <c r="G2" s="14"/>
@@ -58538,462 +58620,462 @@
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="15">
         <f>SUM(E4:E42)</f>
-        <v>19132547.760300007</v>
+        <v>19020089.004400007</v>
       </c>
       <c r="F3" s="25">
         <f>RA!I7</f>
-        <v>355368.08980000002</v>
+        <v>1208325.9493</v>
       </c>
       <c r="G3" s="16">
         <f>SUM(G4:G42)</f>
-        <v>18777179.670499999</v>
+        <v>17811763.055100001</v>
       </c>
       <c r="H3" s="27">
         <f>RA!J7</f>
-        <v>1.8574007719839001</v>
+        <v>6.3528932436671202</v>
       </c>
       <c r="I3" s="20">
         <f>SUM(I4:I42)</f>
-        <v>17718812.56011809</v>
+        <v>19020095.488648593</v>
       </c>
       <c r="J3" s="21">
         <f>SUM(J4:J42)</f>
-        <v>17377281.863193989</v>
+        <v>17811763.01423455</v>
       </c>
       <c r="K3" s="22">
         <f>E3-I3</f>
-        <v>1413735.2001819164</v>
+        <v>-6.484248585999012</v>
       </c>
       <c r="L3" s="22">
         <f>G3-J3</f>
-        <v>1399897.8073060103</v>
+        <v>4.0865451097488403E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="70">
+      <c r="A4" s="68">
         <f>RA!A8</f>
         <v>42548</v>
       </c>
       <c r="B4" s="12">
         <v>12</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="15">
         <f>VLOOKUP(C4,RA!B8:D35,3,0)</f>
-        <v>967985.49439999997</v>
+        <v>934631.51729999995</v>
       </c>
       <c r="F4" s="25">
         <f>VLOOKUP(C4,RA!B8:I38,8,0)</f>
-        <v>-12857.969300000001</v>
+        <v>183347.5736</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" ref="G4:G42" si="0">E4-F4</f>
-        <v>980843.46369999996</v>
+        <v>751283.94369999995</v>
       </c>
       <c r="H4" s="27">
         <f>RA!J8</f>
-        <v>-1.32832251871397</v>
+        <v>19.617097241666102</v>
       </c>
       <c r="I4" s="20">
         <f>VLOOKUP(B4,RMS!B:D,3,FALSE)</f>
-        <v>734225.98155128199</v>
+        <v>934632.441380342</v>
       </c>
       <c r="J4" s="21">
         <f>VLOOKUP(B4,RMS!B:E,4,FALSE)</f>
-        <v>746413.32310000004</v>
+        <v>751283.95181794895</v>
       </c>
       <c r="K4" s="22">
         <f t="shared" ref="K4:K42" si="1">E4-I4</f>
-        <v>233759.51284871798</v>
+        <v>-0.92408034205436707</v>
       </c>
       <c r="L4" s="22">
         <f t="shared" ref="L4:L42" si="2">G4-J4</f>
-        <v>234430.14059999993</v>
+        <v>-8.1179490080103278E-3</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="70"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="12">
         <v>13</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="65"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="15">
         <f>VLOOKUP(C5,RA!B8:D36,3,0)</f>
-        <v>82279.412100000001</v>
+        <v>81106.0628</v>
       </c>
       <c r="F5" s="25">
         <f>VLOOKUP(C5,RA!B9:I39,8,0)</f>
-        <v>8811.5239999999994</v>
+        <v>18328.4751</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" si="0"/>
-        <v>73467.888099999996</v>
+        <v>62777.587700000004</v>
       </c>
       <c r="H5" s="27">
         <f>RA!J9</f>
-        <v>10.709269518468</v>
+        <v>22.598156620173199</v>
       </c>
       <c r="I5" s="20">
         <f>VLOOKUP(B5,RMS!B:D,3,FALSE)</f>
-        <v>32634.142873504301</v>
+        <v>81106.107848717904</v>
       </c>
       <c r="J5" s="21">
         <f>VLOOKUP(B5,RMS!B:E,4,FALSE)</f>
-        <v>26562.853452991501</v>
+        <v>62777.588860683798</v>
       </c>
       <c r="K5" s="22">
         <f t="shared" si="1"/>
-        <v>49645.2692264957</v>
+        <v>-4.5048717904137447E-2</v>
       </c>
       <c r="L5" s="22">
         <f t="shared" si="2"/>
-        <v>46905.034647008491</v>
+        <v>-1.1606837942963466E-3</v>
       </c>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="70"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="12">
         <v>14</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="65"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="15">
         <f>VLOOKUP(C6,RA!B10:D37,3,0)</f>
-        <v>159362.91899999999</v>
+        <v>154117.4014</v>
       </c>
       <c r="F6" s="25">
         <f>VLOOKUP(C6,RA!B10:I40,8,0)</f>
-        <v>12553.8128</v>
+        <v>43409.335200000001</v>
       </c>
       <c r="G6" s="16">
         <f t="shared" si="0"/>
-        <v>146809.10619999998</v>
+        <v>110708.0662</v>
       </c>
       <c r="H6" s="27">
         <f>RA!J10</f>
-        <v>7.8774992820004801</v>
+        <v>28.166407430744599</v>
       </c>
       <c r="I6" s="20">
         <f>VLOOKUP(B6,RMS!B:D,3,FALSE)</f>
-        <v>117407.00273333301</v>
+        <v>154119.38504102599</v>
       </c>
       <c r="J6" s="21">
         <f>VLOOKUP(B6,RMS!B:E,4,FALSE)</f>
-        <v>103963.681762569</v>
+        <v>110708.066036073</v>
       </c>
       <c r="K6" s="22">
         <f>E6-I6</f>
-        <v>41955.916266666987</v>
+        <v>-1.9836410259886179</v>
       </c>
       <c r="L6" s="22">
         <f t="shared" si="2"/>
-        <v>42845.424437430978</v>
+        <v>1.6392700490541756E-4</v>
       </c>
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="70"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="12">
         <v>15</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="65"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="15">
         <f>VLOOKUP(C7,RA!B10:D38,3,0)</f>
-        <v>77462.134300000005</v>
+        <v>75284.269700000004</v>
       </c>
       <c r="F7" s="25">
         <f>VLOOKUP(C7,RA!B11:I41,8,0)</f>
-        <v>4877.6423999999997</v>
+        <v>17698.177800000001</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" si="0"/>
-        <v>72584.491900000008</v>
+        <v>57586.091899999999</v>
       </c>
       <c r="H7" s="27">
         <f>RA!J11</f>
-        <v>6.2968086847563196</v>
+        <v>23.508467134668901</v>
       </c>
       <c r="I7" s="20">
         <f>VLOOKUP(B7,RMS!B:D,3,FALSE)</f>
-        <v>62399.332178882098</v>
+        <v>75284.309487708902</v>
       </c>
       <c r="J7" s="21">
         <f>VLOOKUP(B7,RMS!B:E,4,FALSE)</f>
-        <v>57502.214748233899</v>
+        <v>57586.089674487601</v>
       </c>
       <c r="K7" s="22">
         <f t="shared" si="1"/>
-        <v>15062.802121117908</v>
+        <v>-3.9787708898074925E-2</v>
       </c>
       <c r="L7" s="22">
         <f t="shared" si="2"/>
-        <v>15082.277151766109</v>
+        <v>2.2255123985814862E-3</v>
       </c>
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="70"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="12">
         <v>16</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="65"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="15">
         <f>VLOOKUP(C8,RA!B12:D38,3,0)</f>
-        <v>324587.27010000002</v>
+        <v>309525.58669999999</v>
       </c>
       <c r="F8" s="25">
         <f>VLOOKUP(C8,RA!B12:I42,8,0)</f>
-        <v>-961.89970000000005</v>
+        <v>87636.266900000002</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" si="0"/>
-        <v>325549.16980000003</v>
+        <v>221889.3198</v>
       </c>
       <c r="H8" s="27">
         <f>RA!J12</f>
-        <v>-0.29634547889190299</v>
+        <v>28.313092896239102</v>
       </c>
       <c r="I8" s="20">
         <f>VLOOKUP(B8,RMS!B:D,3,FALSE)</f>
-        <v>189600.65293504301</v>
+        <v>309525.58823418798</v>
       </c>
       <c r="J8" s="21">
         <f>VLOOKUP(B8,RMS!B:E,4,FALSE)</f>
-        <v>181640.48121794901</v>
+        <v>221889.31429487199</v>
       </c>
       <c r="K8" s="22">
         <f t="shared" si="1"/>
-        <v>134986.61716495702</v>
+        <v>-1.5341879916377366E-3</v>
       </c>
       <c r="L8" s="22">
         <f t="shared" si="2"/>
-        <v>143908.68858205102</v>
+        <v>5.5051280069164932E-3</v>
       </c>
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="70"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="12">
         <v>17</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="65"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="15">
         <f>VLOOKUP(C9,RA!B12:D39,3,0)</f>
-        <v>359609.32189999998</v>
+        <v>345090.82829999999</v>
       </c>
       <c r="F9" s="25">
         <f>VLOOKUP(C9,RA!B13:I43,8,0)</f>
-        <v>-799.86829999999998</v>
+        <v>84611.688099999999</v>
       </c>
       <c r="G9" s="16">
         <f t="shared" si="0"/>
-        <v>360409.19019999995</v>
+        <v>260479.14019999999</v>
       </c>
       <c r="H9" s="27">
         <f>RA!J13</f>
-        <v>-0.222427020460395</v>
+        <v>24.5186719440842</v>
       </c>
       <c r="I9" s="20">
         <f>VLOOKUP(B9,RMS!B:D,3,FALSE)</f>
-        <v>246603.29236495699</v>
+        <v>345091.14774957299</v>
       </c>
       <c r="J9" s="21">
         <f>VLOOKUP(B9,RMS!B:E,4,FALSE)</f>
-        <v>239190.913376068</v>
+        <v>260479.130128205</v>
       </c>
       <c r="K9" s="22">
         <f t="shared" si="1"/>
-        <v>113006.029535043</v>
+        <v>-0.31944957299856469</v>
       </c>
       <c r="L9" s="22">
         <f t="shared" si="2"/>
-        <v>121218.27682393196</v>
+        <v>1.0071794997202232E-2</v>
       </c>
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="70"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="12">
         <v>18</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="65"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="15">
         <f>VLOOKUP(C10,RA!B14:D40,3,0)</f>
-        <v>98579.875599999999</v>
+        <v>98296.205100000006</v>
       </c>
       <c r="F10" s="25">
         <f>VLOOKUP(C10,RA!B14:I43,8,0)</f>
-        <v>19307.003100000002</v>
+        <v>20975.652600000001</v>
       </c>
       <c r="G10" s="16">
         <f t="shared" si="0"/>
-        <v>79272.872499999998</v>
+        <v>77320.552500000005</v>
       </c>
       <c r="H10" s="27">
         <f>RA!J14</f>
-        <v>19.585136400801101</v>
+        <v>21.339229300521598</v>
       </c>
       <c r="I10" s="20">
         <f>VLOOKUP(B10,RMS!B:D,3,FALSE)</f>
-        <v>82277.416282051301</v>
+        <v>98296.2114957265</v>
       </c>
       <c r="J10" s="21">
         <f>VLOOKUP(B10,RMS!B:E,4,FALSE)</f>
-        <v>64670.478289743602</v>
+        <v>77320.554870940206</v>
       </c>
       <c r="K10" s="22">
         <f t="shared" si="1"/>
-        <v>16302.459317948698</v>
+        <v>-6.3957264937926084E-3</v>
       </c>
       <c r="L10" s="22">
         <f t="shared" si="2"/>
-        <v>14602.394210256396</v>
+        <v>-2.3709402012173086E-3</v>
       </c>
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="70"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="12">
         <v>19</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="65"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="15">
         <f>VLOOKUP(C11,RA!B14:D41,3,0)</f>
-        <v>116174.2494</v>
+        <v>112783.6635</v>
       </c>
       <c r="F11" s="25">
         <f>VLOOKUP(C11,RA!B15:I44,8,0)</f>
-        <v>-3389.9834000000001</v>
+        <v>16569.040700000001</v>
       </c>
       <c r="G11" s="16">
         <f t="shared" si="0"/>
-        <v>119564.2328</v>
+        <v>96214.622799999997</v>
       </c>
       <c r="H11" s="27">
         <f>RA!J15</f>
-        <v>-2.9180161847466999</v>
+        <v>14.6909935231888</v>
       </c>
       <c r="I11" s="20">
         <f>VLOOKUP(B11,RMS!B:D,3,FALSE)</f>
-        <v>80957.715841880301</v>
+        <v>112783.863790598</v>
       </c>
       <c r="J11" s="21">
         <f>VLOOKUP(B11,RMS!B:E,4,FALSE)</f>
-        <v>80015.469035897404</v>
+        <v>96214.622540170894</v>
       </c>
       <c r="K11" s="22">
         <f t="shared" si="1"/>
-        <v>35216.5335581197</v>
+        <v>-0.20029059800435789</v>
       </c>
       <c r="L11" s="22">
         <f t="shared" si="2"/>
-        <v>39548.763764102594</v>
+        <v>2.5982910301536322E-4</v>
       </c>
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="70"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="12">
         <v>21</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="65"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="15">
         <f>VLOOKUP(C12,RA!B16:D42,3,0)</f>
-        <v>909414.83880000003</v>
+        <v>905588.1263</v>
       </c>
       <c r="F12" s="25">
         <f>VLOOKUP(C12,RA!B16:I45,8,0)</f>
-        <v>-909.22550000000001</v>
+        <v>27945.112000000001</v>
       </c>
       <c r="G12" s="16">
         <f t="shared" si="0"/>
-        <v>910324.06429999997</v>
+        <v>877643.01430000004</v>
       </c>
       <c r="H12" s="27">
         <f>RA!J16</f>
-        <v>-9.9979180150585004E-2</v>
+        <v>3.0858522973547098</v>
       </c>
       <c r="I12" s="20">
         <f>VLOOKUP(B12,RMS!B:D,3,FALSE)</f>
-        <v>876691.47140000004</v>
+        <v>905587.546885969</v>
       </c>
       <c r="J12" s="21">
         <f>VLOOKUP(B12,RMS!B:E,4,FALSE)</f>
-        <v>877609.41440000001</v>
+        <v>877643.01431452995</v>
       </c>
       <c r="K12" s="22">
         <f t="shared" si="1"/>
-        <v>32723.367399999988</v>
+        <v>0.57941403100267053</v>
       </c>
       <c r="L12" s="22">
         <f t="shared" si="2"/>
-        <v>32714.64989999996</v>
+        <v>-1.4529912732541561E-5</v>
       </c>
       <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="70"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="12">
         <v>22</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="65"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="15">
         <f>VLOOKUP(C13,RA!B16:D43,3,0)</f>
-        <v>566283.02410000004</v>
+        <v>569096.24950000003</v>
       </c>
       <c r="F13" s="25">
         <f>VLOOKUP(C13,RA!B17:I46,8,0)</f>
-        <v>23841.402399999999</v>
+        <v>54786.987800000003</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" si="0"/>
-        <v>542441.62170000002</v>
+        <v>514309.26170000003</v>
       </c>
       <c r="H13" s="27">
         <f>RA!J17</f>
-        <v>4.2101566505355503</v>
+        <v>9.6270161414936499</v>
       </c>
       <c r="I13" s="20">
         <f>VLOOKUP(B13,RMS!B:D,3,FALSE)</f>
-        <v>538150.66057008505</v>
+        <v>569096.29304871801</v>
       </c>
       <c r="J13" s="21">
         <f>VLOOKUP(B13,RMS!B:E,4,FALSE)</f>
@@ -59001,128 +59083,128 @@
       </c>
       <c r="K13" s="22">
         <f t="shared" si="1"/>
-        <v>28132.36352991499</v>
+        <v>-4.3548717978410423E-2</v>
       </c>
       <c r="L13" s="22">
         <f t="shared" si="2"/>
-        <v>28132.35941282101</v>
+        <v>-5.871789762750268E-4</v>
       </c>
       <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="70"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="12">
         <v>23</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="65"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="15">
         <f>VLOOKUP(C14,RA!B18:D43,3,0)</f>
-        <v>1593230.8056000001</v>
+        <v>1588504.395</v>
       </c>
       <c r="F14" s="25">
         <f>VLOOKUP(C14,RA!B18:I47,8,0)</f>
-        <v>107056.3869</v>
+        <v>135109.27770000001</v>
       </c>
       <c r="G14" s="16">
         <f t="shared" si="0"/>
-        <v>1486174.4187</v>
+        <v>1453395.1173</v>
       </c>
       <c r="H14" s="27">
         <f>RA!J18</f>
-        <v>6.7194524813172496</v>
+        <v>8.5054393381140105</v>
       </c>
       <c r="I14" s="20">
         <f>VLOOKUP(B14,RMS!B:D,3,FALSE)</f>
-        <v>1549488.8880581199</v>
+        <v>1588504.5869449701</v>
       </c>
       <c r="J14" s="21">
         <f>VLOOKUP(B14,RMS!B:E,4,FALSE)</f>
-        <v>1444066.0795162399</v>
+        <v>1453395.1088324799</v>
       </c>
       <c r="K14" s="22">
         <f t="shared" si="1"/>
-        <v>43741.917541880161</v>
+        <v>-0.19194497005082667</v>
       </c>
       <c r="L14" s="22">
         <f t="shared" si="2"/>
-        <v>42108.339183760108</v>
+        <v>8.4675201214849949E-3</v>
       </c>
       <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="70"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="12">
         <v>24</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="65"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="15">
         <f>VLOOKUP(C15,RA!B18:D44,3,0)</f>
-        <v>453946.511</v>
+        <v>453130.01140000002</v>
       </c>
       <c r="F15" s="25">
         <f>VLOOKUP(C15,RA!B19:I48,8,0)</f>
-        <v>-8553.8006000000005</v>
+        <v>-3750.8202000000001</v>
       </c>
       <c r="G15" s="16">
         <f t="shared" si="0"/>
-        <v>462500.31160000002</v>
+        <v>456880.83160000003</v>
       </c>
       <c r="H15" s="27">
         <f>RA!J19</f>
-        <v>-1.88431905361643</v>
+        <v>-0.82775806184441203</v>
       </c>
       <c r="I15" s="20">
         <f>VLOOKUP(B15,RMS!B:D,3,FALSE)</f>
-        <v>447852.78518632503</v>
+        <v>453129.964673504</v>
       </c>
       <c r="J15" s="21">
         <f>VLOOKUP(B15,RMS!B:E,4,FALSE)</f>
-        <v>456472.61295213702</v>
+        <v>456880.82910598302</v>
       </c>
       <c r="K15" s="22">
         <f t="shared" si="1"/>
-        <v>6093.7258136749733</v>
+        <v>4.672649601707235E-2</v>
       </c>
       <c r="L15" s="22">
         <f t="shared" si="2"/>
-        <v>6027.6986478629988</v>
+        <v>2.4940170114859939E-3</v>
       </c>
       <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="70"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="12">
         <v>25</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="15">
         <f>VLOOKUP(C16,RA!B20:D45,3,0)</f>
-        <v>1074479.4299000001</v>
+        <v>1072250.1348000001</v>
       </c>
       <c r="F16" s="25">
         <f>VLOOKUP(C16,RA!B20:I49,8,0)</f>
-        <v>81828.111300000004</v>
+        <v>96722.426200000002</v>
       </c>
       <c r="G16" s="16">
         <f t="shared" si="0"/>
-        <v>992651.31860000012</v>
+        <v>975527.70860000013</v>
       </c>
       <c r="H16" s="27">
         <f>RA!J20</f>
-        <v>7.6156051966128002</v>
+        <v>9.0205095864167006</v>
       </c>
       <c r="I16" s="20">
         <f>VLOOKUP(B16,RMS!B:D,3,FALSE)</f>
-        <v>1057356.0828</v>
+        <v>1072250.3946523599</v>
       </c>
       <c r="J16" s="21">
         <f>VLOOKUP(B16,RMS!B:E,4,FALSE)</f>
@@ -59130,42 +59212,42 @@
       </c>
       <c r="K16" s="22">
         <f t="shared" si="1"/>
-        <v>17123.34710000013</v>
+        <v>-0.25985235976986587</v>
       </c>
       <c r="L16" s="22">
         <f t="shared" si="2"/>
-        <v>17123.610000000102</v>
+        <v>0</v>
       </c>
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="70"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="12">
         <v>26</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="65"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="15">
         <f>VLOOKUP(C17,RA!B20:D46,3,0)</f>
-        <v>302409.25420000002</v>
+        <v>301638.96529999998</v>
       </c>
       <c r="F17" s="25">
         <f>VLOOKUP(C17,RA!B21:I50,8,0)</f>
-        <v>35169.435799999999</v>
+        <v>40607.026899999997</v>
       </c>
       <c r="G17" s="16">
         <f t="shared" si="0"/>
-        <v>267239.81840000005</v>
+        <v>261031.93839999998</v>
       </c>
       <c r="H17" s="27">
         <f>RA!J21</f>
-        <v>11.629748531683701</v>
+        <v>13.4621290918478</v>
       </c>
       <c r="I17" s="20">
         <f>VLOOKUP(B17,RMS!B:D,3,FALSE)</f>
-        <v>296200.96241946903</v>
+        <v>301638.53108144598</v>
       </c>
       <c r="J17" s="21">
         <f>VLOOKUP(B17,RMS!B:E,4,FALSE)</f>
@@ -59173,42 +59255,42 @@
       </c>
       <c r="K17" s="22">
         <f t="shared" si="1"/>
-        <v>6208.2917805309989</v>
+        <v>0.43421855400083587</v>
       </c>
       <c r="L17" s="22">
         <f t="shared" si="2"/>
-        <v>6207.8800353980332</v>
+        <v>3.5397970350459218E-5</v>
       </c>
       <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="70"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="12">
         <v>27</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="65"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="15">
         <f>VLOOKUP(C18,RA!B22:D47,3,0)</f>
-        <v>1267210.1191</v>
+        <v>1264067.0944999999</v>
       </c>
       <c r="F18" s="25">
         <f>VLOOKUP(C18,RA!B22:I51,8,0)</f>
-        <v>27511.017</v>
+        <v>46257.356899999999</v>
       </c>
       <c r="G18" s="16">
         <f t="shared" si="0"/>
-        <v>1239699.1021</v>
+        <v>1217809.7375999999</v>
       </c>
       <c r="H18" s="27">
         <f>RA!J22</f>
-        <v>2.1709909497518001</v>
+        <v>3.6594067752627502</v>
       </c>
       <c r="I18" s="20">
         <f>VLOOKUP(B18,RMS!B:D,3,FALSE)</f>
-        <v>1245321.4152085499</v>
+        <v>1264067.7811735999</v>
       </c>
       <c r="J18" s="21">
         <f>VLOOKUP(B18,RMS!B:E,4,FALSE)</f>
@@ -59216,453 +59298,453 @@
       </c>
       <c r="K18" s="22">
         <f t="shared" si="1"/>
-        <v>21888.703891450074</v>
+        <v>-0.68667359999381006</v>
       </c>
       <c r="L18" s="22">
         <f t="shared" si="2"/>
-        <v>21889.375442740042</v>
+        <v>1.0942739900201559E-2</v>
       </c>
       <c r="M18" s="32"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="70"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="12">
         <v>29</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="65"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="15">
         <f>VLOOKUP(C19,RA!B22:D48,3,0)</f>
-        <v>3043860.9457</v>
+        <v>3025266.2662</v>
       </c>
       <c r="F19" s="25">
         <f>VLOOKUP(C19,RA!B23:I52,8,0)</f>
-        <v>-108681.81819999999</v>
+        <v>96555.032300000006</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" si="0"/>
-        <v>3152542.7639000001</v>
+        <v>2928711.2338999999</v>
       </c>
       <c r="H19" s="27">
         <f>RA!J23</f>
-        <v>-3.5705250712432401</v>
+        <v>3.19162096172386</v>
       </c>
       <c r="I19" s="20">
         <f>VLOOKUP(B19,RMS!B:D,3,FALSE)</f>
-        <v>2812446.1078145299</v>
+        <v>3025268.1255068402</v>
       </c>
       <c r="J19" s="21">
         <f>VLOOKUP(B19,RMS!B:E,4,FALSE)</f>
-        <v>2921327.49073675</v>
+        <v>2928711.2548393202</v>
       </c>
       <c r="K19" s="22">
         <f t="shared" si="1"/>
-        <v>231414.83788547013</v>
+        <v>-1.8593068402260542</v>
       </c>
       <c r="L19" s="22">
         <f t="shared" si="2"/>
-        <v>231215.27316325018</v>
+        <v>-2.093932032585144E-2</v>
       </c>
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="70"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="12">
         <v>31</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="65"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="15">
         <f>VLOOKUP(C20,RA!B24:D49,3,0)</f>
-        <v>273072.55430000002</v>
+        <v>272562.49449999997</v>
       </c>
       <c r="F20" s="25">
         <f>VLOOKUP(C20,RA!B24:I53,8,0)</f>
-        <v>35057.239699999998</v>
+        <v>38213.458599999998</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" si="0"/>
-        <v>238015.31460000001</v>
+        <v>234349.03589999996</v>
       </c>
       <c r="H20" s="27">
         <f>RA!J24</f>
-        <v>12.838067813100601</v>
+        <v>14.0200722297102</v>
       </c>
       <c r="I20" s="20">
         <f>VLOOKUP(B20,RMS!B:D,3,FALSE)</f>
-        <v>229418.010257749</v>
+        <v>272562.595807412</v>
       </c>
       <c r="J20" s="21">
         <f>VLOOKUP(B20,RMS!B:E,4,FALSE)</f>
-        <v>198783.64229798099</v>
+        <v>234349.03394921901</v>
       </c>
       <c r="K20" s="22">
         <f t="shared" si="1"/>
-        <v>43654.544042251015</v>
+        <v>-0.10130741202738136</v>
       </c>
       <c r="L20" s="22">
         <f t="shared" si="2"/>
-        <v>39231.672302019026</v>
+        <v>1.9507809483911842E-3</v>
       </c>
       <c r="M20" s="32"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="70"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="12">
         <v>32</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="65"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="15">
         <f>VLOOKUP(C21,RA!B24:D50,3,0)</f>
-        <v>279362.01779999997</v>
+        <v>278957.2671</v>
       </c>
       <c r="F21" s="25">
         <f>VLOOKUP(C21,RA!B25:I54,8,0)</f>
-        <v>17806.355299999999</v>
+        <v>21075.528300000002</v>
       </c>
       <c r="G21" s="16">
         <f t="shared" si="0"/>
-        <v>261555.66249999998</v>
+        <v>257881.73879999999</v>
       </c>
       <c r="H21" s="27">
         <f>RA!J25</f>
-        <v>6.3739356696470697</v>
+        <v>7.5551099704618503</v>
       </c>
       <c r="I21" s="20">
         <f>VLOOKUP(B21,RMS!B:D,3,FALSE)</f>
-        <v>231539.38874948901</v>
+        <v>278957.24411285802</v>
       </c>
       <c r="J21" s="21">
         <f>VLOOKUP(B21,RMS!B:E,4,FALSE)</f>
-        <v>214555.433102562</v>
+        <v>257881.74729105301</v>
       </c>
       <c r="K21" s="22">
         <f t="shared" si="1"/>
-        <v>47822.629050510965</v>
+        <v>2.2987141972407699E-2</v>
       </c>
       <c r="L21" s="22">
         <f t="shared" si="2"/>
-        <v>47000.229397437972</v>
+        <v>-8.4910530131310225E-3</v>
       </c>
       <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="70"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="12">
         <v>33</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="65"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="15">
         <f>VLOOKUP(C22,RA!B26:D51,3,0)</f>
-        <v>647679.46900000004</v>
+        <v>646227.94350000005</v>
       </c>
       <c r="F22" s="25">
         <f>VLOOKUP(C22,RA!B26:I55,8,0)</f>
-        <v>112710.8912</v>
+        <v>123522.2197</v>
       </c>
       <c r="G22" s="16">
         <f t="shared" si="0"/>
-        <v>534968.57780000009</v>
+        <v>522705.72380000004</v>
       </c>
       <c r="H22" s="27">
         <f>RA!J26</f>
-        <v>17.402264020198501</v>
+        <v>19.1143420742529</v>
       </c>
       <c r="I22" s="20">
         <f>VLOOKUP(B22,RMS!B:D,3,FALSE)</f>
-        <v>587824.44576063799</v>
+        <v>646227.90426465205</v>
       </c>
       <c r="J22" s="21">
         <f>VLOOKUP(B22,RMS!B:E,4,FALSE)</f>
-        <v>484637.973515502</v>
+        <v>522705.72142308101</v>
       </c>
       <c r="K22" s="22">
         <f t="shared" si="1"/>
-        <v>59855.023239362054</v>
+        <v>3.9235347998328507E-2</v>
       </c>
       <c r="L22" s="22">
         <f t="shared" si="2"/>
-        <v>50330.604284498084</v>
+        <v>2.3769190302118659E-3</v>
       </c>
       <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="70"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="12">
         <v>34</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="65"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="15">
         <f>VLOOKUP(C23,RA!B26:D52,3,0)</f>
-        <v>207649.7072</v>
+        <v>207266.03030000001</v>
       </c>
       <c r="F23" s="25">
         <f>VLOOKUP(C23,RA!B27:I56,8,0)</f>
-        <v>51873.577700000002</v>
+        <v>54171.540399999998</v>
       </c>
       <c r="G23" s="16">
         <f t="shared" si="0"/>
-        <v>155776.12950000001</v>
+        <v>153094.48990000002</v>
       </c>
       <c r="H23" s="27">
         <f>RA!J27</f>
-        <v>24.981291040317899</v>
+        <v>26.136236758909</v>
       </c>
       <c r="I23" s="20">
         <f>VLOOKUP(B23,RMS!B:D,3,FALSE)</f>
-        <v>151567.07188136299</v>
+        <v>207265.829442516</v>
       </c>
       <c r="J23" s="21">
         <f>VLOOKUP(B23,RMS!B:E,4,FALSE)</f>
-        <v>108482.800203361</v>
+        <v>153094.48665111</v>
       </c>
       <c r="K23" s="22">
         <f t="shared" si="1"/>
-        <v>56082.635318637011</v>
+        <v>0.20085748401470482</v>
       </c>
       <c r="L23" s="22">
         <f t="shared" si="2"/>
-        <v>47293.329296639015</v>
+        <v>3.2488900178577751E-3</v>
       </c>
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="70"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="12">
         <v>35</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="65"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="15">
         <f>VLOOKUP(C24,RA!B28:D53,3,0)</f>
-        <v>854484.27590000001</v>
+        <v>854479.52679999999</v>
       </c>
       <c r="F24" s="25">
         <f>VLOOKUP(C24,RA!B28:I57,8,0)</f>
-        <v>7532.4041999999999</v>
+        <v>22573.098099999999</v>
       </c>
       <c r="G24" s="16">
         <f t="shared" si="0"/>
-        <v>846951.87170000002</v>
+        <v>831906.42870000005</v>
       </c>
       <c r="H24" s="27">
         <f>RA!J28</f>
-        <v>0.88151466474516105</v>
+        <v>2.64173656501</v>
       </c>
       <c r="I24" s="20">
         <f>VLOOKUP(B24,RMS!B:D,3,FALSE)</f>
-        <v>770653.47940707998</v>
+        <v>854480.52774433605</v>
       </c>
       <c r="J24" s="21">
         <f>VLOOKUP(B24,RMS!B:E,4,FALSE)</f>
-        <v>764330.42788230104</v>
+        <v>831906.43123805302</v>
       </c>
       <c r="K24" s="22">
         <f t="shared" si="1"/>
-        <v>83830.796492920024</v>
+        <v>-1.0009443360613659</v>
       </c>
       <c r="L24" s="22">
         <f t="shared" si="2"/>
-        <v>82621.443817698979</v>
+        <v>-2.5380529696121812E-3</v>
       </c>
       <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="70"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="12">
         <v>36</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="65"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="15">
         <f>VLOOKUP(C25,RA!B28:D54,3,0)</f>
-        <v>539712.80200000003</v>
+        <v>539708.71030000004</v>
       </c>
       <c r="F25" s="25">
         <f>VLOOKUP(C25,RA!B29:I58,8,0)</f>
-        <v>79435.076799999995</v>
+        <v>87039.026500000007</v>
       </c>
       <c r="G25" s="16">
         <f t="shared" si="0"/>
-        <v>460277.72520000004</v>
+        <v>452669.6838</v>
       </c>
       <c r="H25" s="27">
         <f>RA!J29</f>
-        <v>14.7180271628984</v>
+        <v>16.1270375739571</v>
       </c>
       <c r="I25" s="20">
         <f>VLOOKUP(B25,RMS!B:D,3,FALSE)</f>
-        <v>516220.769087611</v>
+        <v>539709.00415884901</v>
       </c>
       <c r="J25" s="21">
         <f>VLOOKUP(B25,RMS!B:E,4,FALSE)</f>
-        <v>438641.160588898</v>
+        <v>452669.69337790099</v>
       </c>
       <c r="K25" s="22">
         <f t="shared" si="1"/>
-        <v>23492.032912389026</v>
+        <v>-0.29385884897783399</v>
       </c>
       <c r="L25" s="22">
         <f t="shared" si="2"/>
-        <v>21636.564611102047</v>
+        <v>-9.57790098618716E-3</v>
       </c>
       <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="70"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="12">
         <v>37</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="65"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="15">
         <f>VLOOKUP(C26,RA!B30:D55,3,0)</f>
-        <v>1060328.2572999999</v>
+        <v>1058369.1311999999</v>
       </c>
       <c r="F26" s="25">
         <f>VLOOKUP(C26,RA!B30:I59,8,0)</f>
-        <v>117205.2055</v>
+        <v>132275.4142</v>
       </c>
       <c r="G26" s="16">
         <f t="shared" si="0"/>
-        <v>943123.0517999999</v>
+        <v>926093.71699999995</v>
       </c>
       <c r="H26" s="27">
         <f>RA!J30</f>
-        <v>11.0536717939074</v>
+        <v>12.4980415906522</v>
       </c>
       <c r="I26" s="20">
         <f>VLOOKUP(B26,RMS!B:D,3,FALSE)</f>
-        <v>1029126.86732566</v>
+        <v>1058369.1087592901</v>
       </c>
       <c r="J26" s="21">
         <f>VLOOKUP(B26,RMS!B:E,4,FALSE)</f>
-        <v>913433.62120759604</v>
+        <v>926093.72949173301</v>
       </c>
       <c r="K26" s="22">
         <f t="shared" si="1"/>
-        <v>31201.389974339982</v>
+        <v>2.2440709872171283E-2</v>
       </c>
       <c r="L26" s="22">
         <f t="shared" si="2"/>
-        <v>29689.430592403864</v>
+        <v>-1.2491733068600297E-2</v>
       </c>
       <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="70"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="12">
         <v>38</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="65"/>
+      <c r="D27" s="66"/>
       <c r="E27" s="15">
         <f>VLOOKUP(C27,RA!B30:D56,3,0)</f>
-        <v>973939.60510000004</v>
+        <v>973231.32109999994</v>
       </c>
       <c r="F27" s="25">
         <f>VLOOKUP(C27,RA!B31:I60,8,0)</f>
-        <v>7856.3146999999999</v>
+        <v>16176.517400000001</v>
       </c>
       <c r="G27" s="16">
         <f t="shared" si="0"/>
-        <v>966083.29040000006</v>
+        <v>957054.80369999993</v>
       </c>
       <c r="H27" s="27">
         <f>RA!J31</f>
-        <v>0.80665317016175198</v>
+        <v>1.6621451703502901</v>
       </c>
       <c r="I27" s="20">
         <f>VLOOKUP(B27,RMS!B:D,3,FALSE)</f>
-        <v>963200.34341769898</v>
+        <v>973231.28376646002</v>
       </c>
       <c r="J27" s="21">
         <f>VLOOKUP(B27,RMS!B:E,4,FALSE)</f>
-        <v>955319.88212389406</v>
+        <v>957054.72344336298</v>
       </c>
       <c r="K27" s="22">
         <f t="shared" si="1"/>
-        <v>10739.261682301061</v>
+        <v>3.7333539919927716E-2</v>
       </c>
       <c r="L27" s="22">
         <f t="shared" si="2"/>
-        <v>10763.408276105998</v>
+        <v>8.0256636952981353E-2</v>
       </c>
       <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="70"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="12">
         <v>39</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="65"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="15">
         <f>VLOOKUP(C28,RA!B32:D57,3,0)</f>
-        <v>95876.973100000003</v>
+        <v>95717.540099999998</v>
       </c>
       <c r="F28" s="25">
         <f>VLOOKUP(C28,RA!B32:I61,8,0)</f>
-        <v>21742.9594</v>
+        <v>22720.2186</v>
       </c>
       <c r="G28" s="16">
         <f t="shared" si="0"/>
-        <v>74134.01370000001</v>
+        <v>72997.321499999991</v>
       </c>
       <c r="H28" s="27">
         <f>RA!J32</f>
-        <v>22.677978556250402</v>
+        <v>23.7367347471145</v>
       </c>
       <c r="I28" s="20">
         <f>VLOOKUP(B28,RMS!B:D,3,FALSE)</f>
-        <v>74584.826020996901</v>
+        <v>95717.453527388207</v>
       </c>
       <c r="J28" s="21">
         <f>VLOOKUP(B28,RMS!B:E,4,FALSE)</f>
-        <v>55126.712379380697</v>
+        <v>72997.340134027007</v>
       </c>
       <c r="K28" s="22">
         <f t="shared" si="1"/>
-        <v>21292.147079003102</v>
+        <v>8.6572611791780218E-2</v>
       </c>
       <c r="L28" s="22">
         <f t="shared" si="2"/>
-        <v>19007.301320619314</v>
+        <v>-1.8634027015650645E-2</v>
       </c>
       <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="70"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="12">
         <v>40</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="65"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="15">
         <f>VLOOKUP(C29,RA!B32:D58,3,0)</f>
         <v>-18.3628</v>
@@ -59698,33 +59780,33 @@
       <c r="M29" s="32"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="70"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="12">
         <v>42</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="65"/>
+      <c r="D30" s="66"/>
       <c r="E30" s="15">
         <f>VLOOKUP(C30,RA!B34:D60,3,0)</f>
-        <v>145890.8057</v>
+        <v>145884.4198</v>
       </c>
       <c r="F30" s="25">
         <f>VLOOKUP(C30,RA!B34:I64,8,0)</f>
-        <v>20501.626799999998</v>
+        <v>22500.5586</v>
       </c>
       <c r="G30" s="16">
         <f t="shared" si="0"/>
-        <v>125389.1789</v>
+        <v>123383.8612</v>
       </c>
       <c r="H30" s="27">
         <f>RA!J34</f>
-        <v>14.0527202530899</v>
+        <v>15.4235514874358</v>
       </c>
       <c r="I30" s="20">
         <f>VLOOKUP(B30,RMS!B:D,3,FALSE)</f>
-        <v>143885.48740000001</v>
+        <v>145884.419546121</v>
       </c>
       <c r="J30" s="21">
         <f>VLOOKUP(B30,RMS!B:E,4,FALSE)</f>
@@ -59732,16 +59814,16 @@
       </c>
       <c r="K30" s="22">
         <f t="shared" si="1"/>
-        <v>2005.3182999999844</v>
+        <v>2.5387899950146675E-4</v>
       </c>
       <c r="L30" s="22">
         <f t="shared" si="2"/>
-        <v>2005.3237999999983</v>
+        <v>6.0999999986961484E-3</v>
       </c>
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" s="36" customFormat="1" ht="12" thickBot="1">
-      <c r="A31" s="70"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="12">
         <v>43</v>
       </c>
@@ -59751,23 +59833,23 @@
       <c r="D31" s="42"/>
       <c r="E31" s="15">
         <f>VLOOKUP(C31,RA!B35:D61,3,0)</f>
-        <v>10111.462299999999</v>
+        <v>10078.9215</v>
       </c>
       <c r="F31" s="25">
         <f>VLOOKUP(C31,RA!B35:I65,8,0)</f>
-        <v>298.22000000000003</v>
+        <v>489.63650000000001</v>
       </c>
       <c r="G31" s="16">
         <f t="shared" si="0"/>
-        <v>9813.2422999999999</v>
+        <v>9589.2849999999999</v>
       </c>
       <c r="H31" s="27">
         <f>RA!J35</f>
-        <v>2.9493261325812399</v>
+        <v>4.8580247400478296</v>
       </c>
       <c r="I31" s="20">
         <f>VLOOKUP(B31,RMS!B:D,3,FALSE)</f>
-        <v>9887.5087000000003</v>
+        <v>10078.925093162399</v>
       </c>
       <c r="J31" s="21">
         <f>VLOOKUP(B31,RMS!B:E,4,FALSE)</f>
@@ -59775,22 +59857,22 @@
       </c>
       <c r="K31" s="22">
         <f t="shared" si="1"/>
-        <v>223.95359999999891</v>
+        <v>-3.5931623988290085E-3</v>
       </c>
       <c r="L31" s="22">
         <f t="shared" si="2"/>
-        <v>223.95019999999931</v>
+        <v>-7.1000000007188646E-3</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="35" customFormat="1" ht="12" thickBot="1">
-      <c r="A32" s="70"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="12">
         <v>70</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="72"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="15">
         <f>VLOOKUP(C32,RA!B34:D61,3,0)</f>
         <v>253059.98</v>
@@ -59805,7 +59887,7 @@
       </c>
       <c r="H32" s="27">
         <f>RA!J34</f>
-        <v>14.0527202530899</v>
+        <v>15.4235514874358</v>
       </c>
       <c r="I32" s="20">
         <f>VLOOKUP(B32,RMS!B:D,3,FALSE)</f>
@@ -59825,14 +59907,14 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="70"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="12">
         <v>71</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="65"/>
+      <c r="D33" s="66"/>
       <c r="E33" s="15">
         <f>VLOOKUP(C33,RA!B34:D61,3,0)</f>
         <v>447716.28</v>
@@ -59847,7 +59929,7 @@
       </c>
       <c r="H33" s="27">
         <f>RA!J34</f>
-        <v>14.0527202530899</v>
+        <v>15.4235514874358</v>
       </c>
       <c r="I33" s="20">
         <f>VLOOKUP(B33,RMS!B:D,3,FALSE)</f>
@@ -59868,14 +59950,14 @@
       <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="70"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="12">
         <v>72</v>
       </c>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="65"/>
+      <c r="D34" s="66"/>
       <c r="E34" s="15">
         <f>VLOOKUP(C34,RA!B34:D62,3,0)</f>
         <v>708780.39</v>
@@ -59890,7 +59972,7 @@
       </c>
       <c r="H34" s="27">
         <f>RA!J35</f>
-        <v>2.9493261325812399</v>
+        <v>4.8580247400478296</v>
       </c>
       <c r="I34" s="20">
         <f>VLOOKUP(B34,RMS!B:D,3,FALSE)</f>
@@ -59911,14 +59993,14 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="70"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="12">
         <v>73</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="65"/>
+      <c r="D35" s="66"/>
       <c r="E35" s="15">
         <f>VLOOKUP(C35,RA!B34:D63,3,0)</f>
         <v>389240.41</v>
@@ -59933,7 +60015,7 @@
       </c>
       <c r="H35" s="27">
         <f>RA!J34</f>
-        <v>14.0527202530899</v>
+        <v>15.4235514874358</v>
       </c>
       <c r="I35" s="20">
         <f>VLOOKUP(B35,RMS!B:D,3,FALSE)</f>
@@ -59954,14 +60036,14 @@
       <c r="M35" s="32"/>
     </row>
     <row r="36" spans="1:13" s="35" customFormat="1">
-      <c r="A36" s="70"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="12">
         <v>74</v>
       </c>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="65"/>
+      <c r="D36" s="66"/>
       <c r="E36" s="15">
         <f>VLOOKUP(C36,RA!B35:D64,3,0)</f>
         <v>0.55000000000000004</v>
@@ -59976,7 +60058,7 @@
       </c>
       <c r="H36" s="27">
         <f>RA!J35</f>
-        <v>2.9493261325812399</v>
+        <v>4.8580247400478296</v>
       </c>
       <c r="I36" s="20">
         <f>VLOOKUP(B36,RMS!B:D,3,FALSE)</f>
@@ -59996,14 +60078,14 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="11.25" customHeight="1">
-      <c r="A37" s="70"/>
+      <c r="A37" s="68"/>
       <c r="B37" s="12">
         <v>75</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="65"/>
+      <c r="D37" s="66"/>
       <c r="E37" s="15">
         <f>VLOOKUP(C37,RA!B8:D64,3,0)</f>
         <v>34757.264600000002</v>
@@ -60018,7 +60100,7 @@
       </c>
       <c r="H37" s="27">
         <f>RA!J35</f>
-        <v>2.9493261325812399</v>
+        <v>4.8580247400478296</v>
       </c>
       <c r="I37" s="20">
         <f>VLOOKUP(B37,RMS!B:D,3,FALSE)</f>
@@ -60039,25 +60121,25 @@
       <c r="M37" s="32"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="70"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="12">
         <v>76</v>
       </c>
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="65"/>
+      <c r="D38" s="66"/>
       <c r="E38" s="15">
         <f>VLOOKUP(C38,RA!B8:D65,3,0)</f>
-        <v>449577.54330000002</v>
+        <v>449201.21830000001</v>
       </c>
       <c r="F38" s="25">
         <f>VLOOKUP(C38,RA!B8:I69,8,0)</f>
-        <v>18732.9823</v>
+        <v>20946.657299999999</v>
       </c>
       <c r="G38" s="16">
         <f t="shared" si="0"/>
-        <v>430844.56100000005</v>
+        <v>428254.56099999999</v>
       </c>
       <c r="H38" s="27">
         <f>RA!J36</f>
@@ -60065,34 +60147,34 @@
       </c>
       <c r="I38" s="20">
         <f>VLOOKUP(B38,RMS!B:D,3,FALSE)</f>
-        <v>443262.74927692302</v>
+        <v>449201.21081538498</v>
       </c>
       <c r="J38" s="21">
         <f>VLOOKUP(B38,RMS!B:E,4,FALSE)</f>
-        <v>424669.17728205101</v>
+        <v>428254.56189743598</v>
       </c>
       <c r="K38" s="22">
         <f t="shared" si="1"/>
-        <v>6314.7940230770037</v>
+        <v>7.4846150237135589E-3</v>
       </c>
       <c r="L38" s="22">
         <f t="shared" si="2"/>
-        <v>6175.3837179490365</v>
+        <v>-8.9743599528446794E-4</v>
       </c>
       <c r="M38" s="32"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="70"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="12">
         <v>77</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="65"/>
+      <c r="D39" s="66"/>
       <c r="E39" s="15">
         <f>VLOOKUP(C39,RA!B9:D66,3,0)</f>
-        <v>218571.92</v>
+        <v>218612.94</v>
       </c>
       <c r="F39" s="25">
         <f>VLOOKUP(C39,RA!B9:I70,8,0)</f>
@@ -60100,7 +60182,7 @@
       </c>
       <c r="G39" s="16">
         <f t="shared" si="0"/>
-        <v>271181.17000000004</v>
+        <v>271222.19</v>
       </c>
       <c r="H39" s="27">
         <f>RA!J37</f>
@@ -60116,23 +60198,23 @@
       </c>
       <c r="K39" s="22">
         <f t="shared" si="1"/>
-        <v>-41.019999999989523</v>
+        <v>0</v>
       </c>
       <c r="L39" s="22">
         <f t="shared" si="2"/>
-        <v>-41.019999999960419</v>
+        <v>0</v>
       </c>
       <c r="M39" s="32"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="70"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="12">
         <v>78</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="65"/>
+      <c r="D40" s="66"/>
       <c r="E40" s="15">
         <f>VLOOKUP(C40,RA!B10:D67,3,0)</f>
         <v>128763.3</v>
@@ -60168,14 +60250,14 @@
       <c r="M40" s="32"/>
     </row>
     <row r="41" spans="1:13" s="36" customFormat="1">
-      <c r="A41" s="70"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="12">
         <v>9101</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="67"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="15">
         <f>VLOOKUP(C41,RA!B11:D68,3,0)</f>
         <v>0</v>
@@ -60210,14 +60292,14 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="70"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="12">
         <v>99</v>
       </c>
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="65"/>
+      <c r="D42" s="66"/>
       <c r="E42" s="15">
         <f>VLOOKUP(C42,RA!B8:D68,3,0)</f>
         <v>17114.9503</v>
@@ -60254,6 +60336,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -60270,31 +60377,6 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -60307,7 +60389,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -60528,25 +60610,25 @@
       <c r="B7" s="79"/>
       <c r="C7" s="80"/>
       <c r="D7" s="53">
-        <v>19132547.760299999</v>
+        <v>19020089.0044</v>
       </c>
       <c r="E7" s="53">
         <v>16547862.0944</v>
       </c>
       <c r="F7" s="54">
-        <v>115.619453746685</v>
+        <v>114.93985685822599</v>
       </c>
       <c r="G7" s="53">
         <v>30995903.023499999</v>
       </c>
       <c r="H7" s="54">
-        <v>-38.273946250914598</v>
+        <v>-38.6367643814744</v>
       </c>
       <c r="I7" s="53">
-        <v>355368.08980000002</v>
+        <v>1208325.9493</v>
       </c>
       <c r="J7" s="54">
-        <v>1.8574007719839001</v>
+        <v>6.3528932436671202</v>
       </c>
       <c r="K7" s="53">
         <v>687862.71669999999</v>
@@ -60555,13 +60637,13 @@
         <v>2.2192052807059302</v>
       </c>
       <c r="M7" s="54">
-        <v>-0.483373526181405</v>
+        <v>0.75663823603771796</v>
       </c>
       <c r="N7" s="53">
-        <v>534745805.255</v>
+        <v>534633346.49910003</v>
       </c>
       <c r="O7" s="53">
-        <v>3982238541.0426998</v>
+        <v>3982126082.2867999</v>
       </c>
       <c r="P7" s="53">
         <v>867394</v>
@@ -60573,43 +60655,43 @@
         <v>-25.5359917585955</v>
       </c>
       <c r="S7" s="53">
-        <v>22.0575053093519</v>
+        <v>21.927854013746899</v>
       </c>
       <c r="T7" s="53">
         <v>25.1950814205263</v>
       </c>
       <c r="U7" s="55">
-        <v>-14.2245284186515</v>
+        <v>-14.899895834453501</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="12" thickBot="1">
       <c r="A8" s="81">
         <v>42548</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="72"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="56">
-        <v>967985.49439999997</v>
+        <v>934631.51729999995</v>
       </c>
       <c r="E8" s="56">
         <v>565679.24789999996</v>
       </c>
       <c r="F8" s="57">
-        <v>171.119145344911</v>
+        <v>165.22287511335799</v>
       </c>
       <c r="G8" s="56">
         <v>1168758.0926999999</v>
       </c>
       <c r="H8" s="57">
-        <v>-17.178285186131699</v>
+        <v>-20.032081648233401</v>
       </c>
       <c r="I8" s="56">
-        <v>-12857.969300000001</v>
+        <v>183347.5736</v>
       </c>
       <c r="J8" s="57">
-        <v>-1.32832251871397</v>
+        <v>19.617097241666102</v>
       </c>
       <c r="K8" s="56">
         <v>132573.99110000001</v>
@@ -60618,13 +60700,13 @@
         <v>11.3431506423827</v>
       </c>
       <c r="M8" s="57">
-        <v>-1.0969871178601001</v>
+        <v>0.38298298239887602</v>
       </c>
       <c r="N8" s="56">
-        <v>15798038.736</v>
+        <v>15764684.7589</v>
       </c>
       <c r="O8" s="56">
-        <v>141254751.50580001</v>
+        <v>141221397.52869999</v>
       </c>
       <c r="P8" s="56">
         <v>26251</v>
@@ -60636,41 +60718,41 @@
         <v>-35.537656852392999</v>
       </c>
       <c r="S8" s="56">
-        <v>36.874233149213403</v>
+        <v>35.6036538531866</v>
       </c>
       <c r="T8" s="56">
         <v>25.2002249515016</v>
       </c>
       <c r="U8" s="58">
-        <v>31.658985694624</v>
+        <v>29.220115847053201</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="12" thickBot="1">
       <c r="A9" s="82"/>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="72"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="56">
-        <v>82279.412100000001</v>
+        <v>81106.0628</v>
       </c>
       <c r="E9" s="56">
         <v>68949.238500000007</v>
       </c>
       <c r="F9" s="57">
-        <v>119.333315189551</v>
+        <v>117.631557018574</v>
       </c>
       <c r="G9" s="56">
         <v>119995.95359999999</v>
       </c>
       <c r="H9" s="57">
-        <v>-31.431511120555001</v>
+        <v>-32.409335176115498</v>
       </c>
       <c r="I9" s="56">
-        <v>8811.5239999999994</v>
+        <v>18328.4751</v>
       </c>
       <c r="J9" s="57">
-        <v>10.709269518468</v>
+        <v>22.598156620173199</v>
       </c>
       <c r="K9" s="56">
         <v>25764.733199999999</v>
@@ -60679,13 +60761,13 @@
         <v>21.471335013416699</v>
       </c>
       <c r="M9" s="57">
-        <v>-0.658000572658754</v>
+        <v>-0.288621583708074</v>
       </c>
       <c r="N9" s="56">
-        <v>2513870.0830000001</v>
+        <v>2512696.7337000002</v>
       </c>
       <c r="O9" s="56">
-        <v>20115771.285300002</v>
+        <v>20114597.936000001</v>
       </c>
       <c r="P9" s="56">
         <v>4241</v>
@@ -60697,41 +60779,41 @@
         <v>-28.710707681963399</v>
       </c>
       <c r="S9" s="56">
-        <v>19.400946026880501</v>
+        <v>19.124277953312902</v>
       </c>
       <c r="T9" s="56">
         <v>42.490665960665702</v>
       </c>
       <c r="U9" s="58">
-        <v>-119.01337131598601</v>
+        <v>-122.181805056358</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="12" thickBot="1">
       <c r="A10" s="82"/>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="72"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="56">
-        <v>159362.91899999999</v>
+        <v>154117.4014</v>
       </c>
       <c r="E10" s="56">
         <v>112429.1404</v>
       </c>
       <c r="F10" s="57">
-        <v>141.74520807774499</v>
+        <v>137.079587064067</v>
       </c>
       <c r="G10" s="56">
         <v>207180.63149999999</v>
       </c>
       <c r="H10" s="57">
-        <v>-23.0802040489002</v>
+        <v>-25.612061183431599</v>
       </c>
       <c r="I10" s="56">
-        <v>12553.8128</v>
+        <v>43409.335200000001</v>
       </c>
       <c r="J10" s="57">
-        <v>7.8774992820004801</v>
+        <v>28.166407430744599</v>
       </c>
       <c r="K10" s="56">
         <v>38716.304499999998</v>
@@ -60740,13 +60822,13 @@
         <v>18.687221976152699</v>
       </c>
       <c r="M10" s="57">
-        <v>-0.67574868102403696</v>
+        <v>0.121215874309492</v>
       </c>
       <c r="N10" s="56">
-        <v>4866120.2244999995</v>
+        <v>4860874.7068999996</v>
       </c>
       <c r="O10" s="56">
-        <v>35693790.597400002</v>
+        <v>35688545.079800002</v>
       </c>
       <c r="P10" s="56">
         <v>89875</v>
@@ -60758,41 +60840,41 @@
         <v>-23.7080234966555</v>
       </c>
       <c r="S10" s="56">
-        <v>1.7731618247566101</v>
+        <v>1.71479723393602</v>
       </c>
       <c r="T10" s="56">
         <v>1.3310348324335299</v>
       </c>
       <c r="U10" s="58">
-        <v>24.934384789372601</v>
+        <v>22.379462359035202</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="12" thickBot="1">
       <c r="A11" s="82"/>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="56">
-        <v>77462.134300000005</v>
+        <v>75284.269700000004</v>
       </c>
       <c r="E11" s="56">
         <v>59399.877500000002</v>
       </c>
       <c r="F11" s="57">
-        <v>130.40790244054</v>
+        <v>126.741456158727</v>
       </c>
       <c r="G11" s="56">
         <v>94990.535099999994</v>
       </c>
       <c r="H11" s="57">
-        <v>-18.452786671374401</v>
+        <v>-20.745504148654899</v>
       </c>
       <c r="I11" s="56">
-        <v>4877.6423999999997</v>
+        <v>17698.177800000001</v>
       </c>
       <c r="J11" s="57">
-        <v>6.2968086847563196</v>
+        <v>23.508467134668901</v>
       </c>
       <c r="K11" s="56">
         <v>10063.6145</v>
@@ -60801,13 +60883,13 @@
         <v>10.5943339401191</v>
       </c>
       <c r="M11" s="57">
-        <v>-0.51531903373286003</v>
+        <v>0.758630341017137</v>
       </c>
       <c r="N11" s="56">
-        <v>1876540.9727</v>
+        <v>1874363.1081000001</v>
       </c>
       <c r="O11" s="56">
-        <v>12036811.694399999</v>
+        <v>12034633.8298</v>
       </c>
       <c r="P11" s="56">
         <v>2950</v>
@@ -60819,41 +60901,41 @@
         <v>-26.470588235294102</v>
       </c>
       <c r="S11" s="56">
-        <v>26.258350610169501</v>
+        <v>25.5200914237288</v>
       </c>
       <c r="T11" s="56">
         <v>20.045235443669</v>
       </c>
       <c r="U11" s="58">
-        <v>23.661483003027001</v>
+        <v>21.453120559628001</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="12" thickBot="1">
       <c r="A12" s="82"/>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="72"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="56">
-        <v>324587.27010000002</v>
+        <v>309525.58669999999</v>
       </c>
       <c r="E12" s="56">
         <v>252248.15359999999</v>
       </c>
       <c r="F12" s="57">
-        <v>128.67775857527599</v>
+        <v>122.706779923879</v>
       </c>
       <c r="G12" s="56">
         <v>636597.81610000005</v>
       </c>
       <c r="H12" s="57">
-        <v>-49.012192330705098</v>
+        <v>-51.378157626073602</v>
       </c>
       <c r="I12" s="56">
-        <v>-961.89970000000005</v>
+        <v>87636.266900000002</v>
       </c>
       <c r="J12" s="57">
-        <v>-0.29634547889190299</v>
+        <v>28.313092896239102</v>
       </c>
       <c r="K12" s="56">
         <v>-10073.0069</v>
@@ -60862,13 +60944,13 @@
         <v>-1.5823187961451799</v>
       </c>
       <c r="M12" s="57">
-        <v>-0.90450719337837404</v>
+        <v>-9.7001098847653893</v>
       </c>
       <c r="N12" s="56">
-        <v>8067577.3592999997</v>
+        <v>8052515.6759000001</v>
       </c>
       <c r="O12" s="56">
-        <v>42975468.9617</v>
+        <v>42960407.278300002</v>
       </c>
       <c r="P12" s="56">
         <v>2688</v>
@@ -60880,41 +60962,41 @@
         <v>-50.524572059635602</v>
       </c>
       <c r="S12" s="56">
-        <v>120.754192745536</v>
+        <v>115.150887909226</v>
       </c>
       <c r="T12" s="56">
         <v>76.319478833057303</v>
       </c>
       <c r="U12" s="58">
-        <v>36.797657209398402</v>
+        <v>33.722196833410301</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="12" thickBot="1">
       <c r="A13" s="82"/>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="56">
-        <v>359609.32189999998</v>
+        <v>345090.82829999999</v>
       </c>
       <c r="E13" s="56">
         <v>256103.89259999999</v>
       </c>
       <c r="F13" s="57">
-        <v>140.415406516941</v>
+        <v>134.74642060165201</v>
       </c>
       <c r="G13" s="56">
         <v>601787.59770000004</v>
       </c>
       <c r="H13" s="57">
-        <v>-40.243148367562299</v>
+        <v>-42.655709486383799</v>
       </c>
       <c r="I13" s="56">
-        <v>-799.86829999999998</v>
+        <v>84611.688099999999</v>
       </c>
       <c r="J13" s="57">
-        <v>-0.222427020460395</v>
+        <v>24.5186719440842</v>
       </c>
       <c r="K13" s="56">
         <v>8487.5845000000008</v>
@@ -60923,13 +61005,13 @@
         <v>1.4103953840921799</v>
       </c>
       <c r="M13" s="57">
-        <v>-1.09423980403376</v>
+        <v>8.9688772583059393</v>
       </c>
       <c r="N13" s="56">
-        <v>6981012.3520999998</v>
+        <v>6966493.8585000001</v>
       </c>
       <c r="O13" s="56">
-        <v>61552959.3763</v>
+        <v>61538440.882700004</v>
       </c>
       <c r="P13" s="56">
         <v>11086</v>
@@ -60941,41 +61023,41 @@
         <v>-32.860949612403097</v>
       </c>
       <c r="S13" s="56">
-        <v>32.438149188165298</v>
+        <v>31.128525013530599</v>
       </c>
       <c r="T13" s="56">
         <v>21.4830690164729</v>
       </c>
       <c r="U13" s="58">
-        <v>33.772210948734497</v>
+        <v>30.985907597180201</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="12" thickBot="1">
       <c r="A14" s="82"/>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="72"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="56">
-        <v>98579.875599999999</v>
+        <v>98296.205100000006</v>
       </c>
       <c r="E14" s="56">
         <v>169309.1507</v>
       </c>
       <c r="F14" s="57">
-        <v>58.2247770970598</v>
+        <v>58.057231220875799</v>
       </c>
       <c r="G14" s="56">
         <v>981353.79740000004</v>
       </c>
       <c r="H14" s="57">
-        <v>-89.954705850104503</v>
+        <v>-89.983611887942402</v>
       </c>
       <c r="I14" s="56">
-        <v>19307.003100000002</v>
+        <v>20975.652600000001</v>
       </c>
       <c r="J14" s="57">
-        <v>19.585136400801101</v>
+        <v>21.339229300521598</v>
       </c>
       <c r="K14" s="56">
         <v>33503.693700000003</v>
@@ -60984,13 +61066,13 @@
         <v>3.4140280282977198</v>
       </c>
       <c r="M14" s="57">
-        <v>-0.42373508805090299</v>
+        <v>-0.37393014669305003</v>
       </c>
       <c r="N14" s="56">
-        <v>3648525.9279</v>
+        <v>3648242.2574</v>
       </c>
       <c r="O14" s="56">
-        <v>28203938.636500001</v>
+        <v>28203654.965999998</v>
       </c>
       <c r="P14" s="56">
         <v>2096</v>
@@ -61002,41 +61084,41 @@
         <v>-33.984251968503898</v>
       </c>
       <c r="S14" s="56">
-        <v>47.032383396946599</v>
+        <v>46.897044417938901</v>
       </c>
       <c r="T14" s="56">
         <v>48.896720818897599</v>
       </c>
       <c r="U14" s="58">
-        <v>-3.9639441748387201</v>
+        <v>-4.2639710578302497</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="12" thickBot="1">
       <c r="A15" s="82"/>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="72"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="56">
-        <v>116174.2494</v>
+        <v>112783.6635</v>
       </c>
       <c r="E15" s="56">
         <v>134316.25080000001</v>
       </c>
       <c r="F15" s="57">
-        <v>86.493070427484</v>
+        <v>83.968740065517096</v>
       </c>
       <c r="G15" s="56">
         <v>235826.7868</v>
       </c>
       <c r="H15" s="57">
-        <v>-50.7374666905312</v>
+        <v>-52.175210869641603</v>
       </c>
       <c r="I15" s="56">
-        <v>-3389.9834000000001</v>
+        <v>16569.040700000001</v>
       </c>
       <c r="J15" s="57">
-        <v>-2.9180161847466999</v>
+        <v>14.6909935231888</v>
       </c>
       <c r="K15" s="56">
         <v>10494.7595</v>
@@ -61045,13 +61127,13 @@
         <v>4.4501982333755796</v>
       </c>
       <c r="M15" s="57">
-        <v>-1.32301677804051</v>
+        <v>0.57879184368160097</v>
       </c>
       <c r="N15" s="56">
-        <v>3167555.0225</v>
+        <v>3164164.4366000001</v>
       </c>
       <c r="O15" s="56">
-        <v>23641976.2903</v>
+        <v>23638585.704399999</v>
       </c>
       <c r="P15" s="56">
         <v>4884</v>
@@ -61063,41 +61145,41 @@
         <v>-46.907272529622801</v>
       </c>
       <c r="S15" s="56">
-        <v>23.7867013513514</v>
+        <v>23.092478194103201</v>
       </c>
       <c r="T15" s="56">
         <v>17.696804152625301</v>
       </c>
       <c r="U15" s="58">
-        <v>25.602108963208899</v>
+        <v>23.365504542755101</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="12" thickBot="1">
       <c r="A16" s="82"/>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="72"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="56">
-        <v>909414.83880000003</v>
+        <v>905588.1263</v>
       </c>
       <c r="E16" s="56">
         <v>980316.95510000002</v>
       </c>
       <c r="F16" s="57">
-        <v>92.767429357297303</v>
+        <v>92.377074739834796</v>
       </c>
       <c r="G16" s="56">
         <v>2160033.2513000001</v>
       </c>
       <c r="H16" s="57">
-        <v>-57.8981092882401</v>
+        <v>-58.075269176760202</v>
       </c>
       <c r="I16" s="56">
-        <v>-909.22550000000001</v>
+        <v>27945.112000000001</v>
       </c>
       <c r="J16" s="57">
-        <v>-9.9979180150585004E-2</v>
+        <v>3.0858522973547098</v>
       </c>
       <c r="K16" s="56">
         <v>-98476.641600000003</v>
@@ -61106,13 +61188,13 @@
         <v>-4.5590335954658396</v>
       </c>
       <c r="M16" s="57">
-        <v>-0.99076709476250102</v>
+        <v>-1.28377401529908</v>
       </c>
       <c r="N16" s="56">
-        <v>30259530.105900001</v>
+        <v>30255703.393399999</v>
       </c>
       <c r="O16" s="56">
-        <v>202653684.0086</v>
+        <v>202649857.29609999</v>
       </c>
       <c r="P16" s="56">
         <v>44405</v>
@@ -61124,41 +61206,41 @@
         <v>-40.533265481037098</v>
       </c>
       <c r="S16" s="56">
-        <v>20.480009881770101</v>
+        <v>20.3938323679766</v>
       </c>
       <c r="T16" s="56">
         <v>24.2624204333619</v>
       </c>
       <c r="U16" s="58">
-        <v>-18.468792610098699</v>
+        <v>-18.9694020995287</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="12" thickBot="1">
       <c r="A17" s="82"/>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="72"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="56">
-        <v>566283.02410000004</v>
+        <v>569096.24950000003</v>
       </c>
       <c r="E17" s="56">
         <v>536675.08649999998</v>
       </c>
       <c r="F17" s="57">
-        <v>105.516920450527</v>
+        <v>106.041115717042</v>
       </c>
       <c r="G17" s="56">
         <v>892071.70189999999</v>
       </c>
       <c r="H17" s="57">
-        <v>-36.520458737353898</v>
+        <v>-36.205100073469801</v>
       </c>
       <c r="I17" s="56">
-        <v>23841.402399999999</v>
+        <v>54786.987800000003</v>
       </c>
       <c r="J17" s="57">
-        <v>4.2101566505355503</v>
+        <v>9.6270161414936499</v>
       </c>
       <c r="K17" s="56">
         <v>64349.614000000001</v>
@@ -61167,13 +61249,13 @@
         <v>7.2135024418937901</v>
       </c>
       <c r="M17" s="57">
-        <v>-0.62950201379607296</v>
+        <v>-0.14860425114593501</v>
       </c>
       <c r="N17" s="56">
-        <v>21937691.069499999</v>
+        <v>21940504.2949</v>
       </c>
       <c r="O17" s="56">
-        <v>220311841.70640001</v>
+        <v>220314654.93180001</v>
       </c>
       <c r="P17" s="56">
         <v>12231</v>
@@ -61185,41 +61267,41 @@
         <v>-9.6809924678777097</v>
       </c>
       <c r="S17" s="56">
-        <v>46.298996329000097</v>
+        <v>46.529004128852897</v>
       </c>
       <c r="T17" s="56">
         <v>34.559431420765002</v>
       </c>
       <c r="U17" s="58">
-        <v>25.355981423039601</v>
+        <v>25.7249707621949</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A18" s="82"/>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="72"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="56">
-        <v>1593230.8056000001</v>
+        <v>1588504.395</v>
       </c>
       <c r="E18" s="56">
         <v>1381361.9145</v>
       </c>
       <c r="F18" s="57">
-        <v>115.337681521116</v>
+        <v>114.995525671126</v>
       </c>
       <c r="G18" s="56">
         <v>1933698.9865999999</v>
       </c>
       <c r="H18" s="57">
-        <v>-17.607093108045799</v>
+        <v>-17.8515163938184</v>
       </c>
       <c r="I18" s="56">
-        <v>107056.3869</v>
+        <v>135109.27770000001</v>
       </c>
       <c r="J18" s="57">
-        <v>6.7194524813172496</v>
+        <v>8.5054393381140105</v>
       </c>
       <c r="K18" s="56">
         <v>241538.87729999999</v>
@@ -61228,13 +61310,13 @@
         <v>12.4910277646003</v>
       </c>
       <c r="M18" s="57">
-        <v>-0.55677368340570699</v>
+        <v>-0.44063134179352298</v>
       </c>
       <c r="N18" s="56">
-        <v>42829898.734200001</v>
+        <v>42825172.323600002</v>
       </c>
       <c r="O18" s="56">
-        <v>421624407.70719999</v>
+        <v>421619681.29659998</v>
       </c>
       <c r="P18" s="56">
         <v>69136</v>
@@ -61246,41 +61328,41 @@
         <v>-29.206729538496202</v>
       </c>
       <c r="S18" s="56">
-        <v>23.0448797384865</v>
+        <v>22.976515780490601</v>
       </c>
       <c r="T18" s="56">
         <v>20.555919289568799</v>
       </c>
       <c r="U18" s="58">
-        <v>10.800492244535</v>
+        <v>10.5350894541511</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A19" s="82"/>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="72"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="56">
-        <v>453946.511</v>
+        <v>453130.01140000002</v>
       </c>
       <c r="E19" s="56">
         <v>412074.0589</v>
       </c>
       <c r="F19" s="57">
-        <v>110.16138997241799</v>
+        <v>109.96324607513399</v>
       </c>
       <c r="G19" s="56">
         <v>1149776.8629000001</v>
       </c>
       <c r="H19" s="57">
-        <v>-60.518729707689303</v>
+        <v>-60.589743451864003</v>
       </c>
       <c r="I19" s="56">
-        <v>-8553.8006000000005</v>
+        <v>-3750.8202000000001</v>
       </c>
       <c r="J19" s="57">
-        <v>-1.88431905361643</v>
+        <v>-0.82775806184441203</v>
       </c>
       <c r="K19" s="56">
         <v>-132745.32629999999</v>
@@ -61289,13 +61371,13 @@
         <v>-11.545312015166701</v>
       </c>
       <c r="M19" s="57">
-        <v>-0.93556232194067102</v>
+        <v>-0.97174423910395702</v>
       </c>
       <c r="N19" s="56">
-        <v>14438738.8368</v>
+        <v>14437922.337200001</v>
       </c>
       <c r="O19" s="56">
-        <v>125107015.9967</v>
+        <v>125106199.4971</v>
       </c>
       <c r="P19" s="56">
         <v>7976</v>
@@ -61307,41 +61389,41 @@
         <v>-31.069051940195301</v>
       </c>
       <c r="S19" s="56">
-        <v>56.914056043129399</v>
+        <v>56.811686484453404</v>
       </c>
       <c r="T19" s="56">
         <v>56.850208754645202</v>
       </c>
       <c r="U19" s="58">
-        <v>0.112181933467819</v>
+        <v>-6.7806947083734997E-2</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="12" thickBot="1">
       <c r="A20" s="82"/>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="72"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="56">
-        <v>1074479.4299000001</v>
+        <v>1072250.1348000001</v>
       </c>
       <c r="E20" s="56">
         <v>972955.07019999996</v>
       </c>
       <c r="F20" s="57">
-        <v>110.434640078409</v>
+        <v>110.20551386608101</v>
       </c>
       <c r="G20" s="56">
         <v>1360327.9672000001</v>
       </c>
       <c r="H20" s="57">
-        <v>-21.0132074170591</v>
+        <v>-21.177086654548301</v>
       </c>
       <c r="I20" s="56">
-        <v>81828.111300000004</v>
+        <v>96722.426200000002</v>
       </c>
       <c r="J20" s="57">
-        <v>7.6156051966128002</v>
+        <v>9.0205095864167006</v>
       </c>
       <c r="K20" s="56">
         <v>64020.8819</v>
@@ -61350,13 +61432,13 @@
         <v>4.7062828555804801</v>
       </c>
       <c r="M20" s="57">
-        <v>0.27814720559168099</v>
+        <v>0.51079496766507404</v>
       </c>
       <c r="N20" s="56">
-        <v>29460082.3035</v>
+        <v>29457853.008400001</v>
       </c>
       <c r="O20" s="56">
-        <v>226182970.0316</v>
+        <v>226180740.73649999</v>
       </c>
       <c r="P20" s="56">
         <v>42030</v>
@@ -61368,41 +61450,41 @@
         <v>-25.286641187450002</v>
       </c>
       <c r="S20" s="56">
-        <v>25.564583152510099</v>
+        <v>25.5115425838687</v>
       </c>
       <c r="T20" s="56">
         <v>34.408847819749397</v>
       </c>
       <c r="U20" s="58">
-        <v>-34.595771088764501</v>
+        <v>-34.8756066264162</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A21" s="82"/>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="72"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="56">
-        <v>302409.25420000002</v>
+        <v>301638.96529999998</v>
       </c>
       <c r="E21" s="56">
         <v>304649.26150000002</v>
       </c>
       <c r="F21" s="57">
-        <v>99.264725839487994</v>
+        <v>99.011881340142295</v>
       </c>
       <c r="G21" s="56">
         <v>379697.3259</v>
       </c>
       <c r="H21" s="57">
-        <v>-20.355179356821498</v>
+        <v>-20.5580485495855</v>
       </c>
       <c r="I21" s="56">
-        <v>35169.435799999999</v>
+        <v>40607.026899999997</v>
       </c>
       <c r="J21" s="57">
-        <v>11.629748531683701</v>
+        <v>13.4621290918478</v>
       </c>
       <c r="K21" s="56">
         <v>39807.6999</v>
@@ -61411,13 +61493,13 @@
         <v>10.4840611678377</v>
       </c>
       <c r="M21" s="57">
-        <v>-0.116516757101055</v>
+        <v>2.0079708247600001E-2</v>
       </c>
       <c r="N21" s="56">
-        <v>8470906.3430000003</v>
+        <v>8470136.0540999994</v>
       </c>
       <c r="O21" s="56">
-        <v>75833598.318599999</v>
+        <v>75832828.029699996</v>
       </c>
       <c r="P21" s="56">
         <v>26578</v>
@@ -61429,41 +61511,41 @@
         <v>-28.101498674457599</v>
       </c>
       <c r="S21" s="56">
-        <v>11.378179479268599</v>
+        <v>11.349197279705001</v>
       </c>
       <c r="T21" s="56">
         <v>11.4788891873614</v>
       </c>
       <c r="U21" s="58">
-        <v>-0.88511266917777298</v>
+        <v>-1.14274079884275</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A22" s="82"/>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="72"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="56">
-        <v>1267210.1191</v>
+        <v>1264067.0944999999</v>
       </c>
       <c r="E22" s="56">
         <v>1710958.1373000001</v>
       </c>
       <c r="F22" s="57">
-        <v>74.064355607188503</v>
+        <v>73.880655928541699</v>
       </c>
       <c r="G22" s="56">
         <v>1677840.577</v>
       </c>
       <c r="H22" s="57">
-        <v>-24.4737470012921</v>
+        <v>-24.661072581748599</v>
       </c>
       <c r="I22" s="56">
-        <v>27511.017</v>
+        <v>46257.356899999999</v>
       </c>
       <c r="J22" s="57">
-        <v>2.1709909497518001</v>
+        <v>3.6594067752627502</v>
       </c>
       <c r="K22" s="56">
         <v>202121.36619999999</v>
@@ -61472,13 +61554,13 @@
         <v>12.046517945190899</v>
       </c>
       <c r="M22" s="57">
-        <v>-0.86388862534810995</v>
+        <v>-0.77114068754993403</v>
       </c>
       <c r="N22" s="56">
-        <v>43425137.666500002</v>
+        <v>43421994.641900003</v>
       </c>
       <c r="O22" s="56">
-        <v>261593894.3321</v>
+        <v>261590751.3075</v>
       </c>
       <c r="P22" s="56">
         <v>69965</v>
@@ -61490,41 +61572,41 @@
         <v>-31.493503314435699</v>
       </c>
       <c r="S22" s="56">
-        <v>18.112057730293699</v>
+        <v>18.067134917458699</v>
       </c>
       <c r="T22" s="56">
         <v>16.962920983266301</v>
       </c>
       <c r="U22" s="58">
-        <v>6.34459520911002</v>
+        <v>6.1117268412349999</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="12" thickBot="1">
       <c r="A23" s="82"/>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="72"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="56">
-        <v>3043860.9457</v>
+        <v>3025266.2662</v>
       </c>
       <c r="E23" s="56">
         <v>2492284.3942</v>
       </c>
       <c r="F23" s="57">
-        <v>122.13136481469</v>
+        <v>121.385275020794</v>
       </c>
       <c r="G23" s="56">
         <v>4893305.8008000003</v>
       </c>
       <c r="H23" s="57">
-        <v>-37.795407243864403</v>
+        <v>-38.175409644224501</v>
       </c>
       <c r="I23" s="56">
-        <v>-108681.81819999999</v>
+        <v>96555.032300000006</v>
       </c>
       <c r="J23" s="57">
-        <v>-3.5705250712432401</v>
+        <v>3.19162096172386</v>
       </c>
       <c r="K23" s="56">
         <v>156221.81969999999</v>
@@ -61533,13 +61615,13 @@
         <v>3.1925619623948198</v>
       </c>
       <c r="M23" s="57">
-        <v>-1.6956891067375</v>
+        <v>-0.38193632307305703</v>
       </c>
       <c r="N23" s="56">
-        <v>89368027.256799996</v>
+        <v>89349432.577299997</v>
       </c>
       <c r="O23" s="56">
-        <v>581275096.55320001</v>
+        <v>581256501.87370002</v>
       </c>
       <c r="P23" s="56">
         <v>78945</v>
@@ -61551,41 +61633,41 @@
         <v>-24.904400433765201</v>
       </c>
       <c r="S23" s="56">
-        <v>38.556728680727097</v>
+        <v>38.321189007536901</v>
       </c>
       <c r="T23" s="56">
         <v>49.464458835112197</v>
       </c>
       <c r="U23" s="58">
-        <v>-28.290081984671598</v>
+        <v>-29.078611901586999</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="12" thickBot="1">
       <c r="A24" s="82"/>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="72"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="56">
-        <v>273072.55430000002</v>
+        <v>272562.49449999997</v>
       </c>
       <c r="E24" s="56">
         <v>206171.92879999999</v>
       </c>
       <c r="F24" s="57">
-        <v>132.44894971366301</v>
+        <v>132.201554346617</v>
       </c>
       <c r="G24" s="56">
         <v>271498.2856</v>
       </c>
       <c r="H24" s="57">
-        <v>0.57984480326309695</v>
+        <v>0.39197628730807099</v>
       </c>
       <c r="I24" s="56">
-        <v>35057.239699999998</v>
+        <v>38213.458599999998</v>
       </c>
       <c r="J24" s="57">
-        <v>12.838067813100601</v>
+        <v>14.0200722297102</v>
       </c>
       <c r="K24" s="56">
         <v>41486.662700000001</v>
@@ -61594,13 +61676,13 @@
         <v>15.2806352380149</v>
       </c>
       <c r="M24" s="57">
-        <v>-0.15497566161184601</v>
+        <v>-7.8897744165861997E-2</v>
       </c>
       <c r="N24" s="56">
-        <v>7386068.4818000002</v>
+        <v>7385558.4220000003</v>
       </c>
       <c r="O24" s="56">
-        <v>54392012.981200002</v>
+        <v>54391502.921400003</v>
       </c>
       <c r="P24" s="56">
         <v>25518</v>
@@ -61612,41 +61694,41 @@
         <v>-21.953755811108401</v>
       </c>
       <c r="S24" s="56">
-        <v>10.7011738498315</v>
+        <v>10.6811856140763</v>
       </c>
       <c r="T24" s="56">
         <v>11.115215197577699</v>
       </c>
       <c r="U24" s="58">
-        <v>-3.8691208418477401</v>
+        <v>-4.0634963119576799</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="12" thickBot="1">
       <c r="A25" s="82"/>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="72"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="56">
-        <v>279362.01779999997</v>
+        <v>278957.2671</v>
       </c>
       <c r="E25" s="56">
         <v>205640.12210000001</v>
       </c>
       <c r="F25" s="57">
-        <v>135.849957171369</v>
+        <v>135.65313240008001</v>
       </c>
       <c r="G25" s="56">
         <v>271794.62349999999</v>
       </c>
       <c r="H25" s="57">
-        <v>2.7842325218033799</v>
+        <v>2.63531467538396</v>
       </c>
       <c r="I25" s="56">
-        <v>17806.355299999999</v>
+        <v>21075.528300000002</v>
       </c>
       <c r="J25" s="57">
-        <v>6.3739356696470697</v>
+        <v>7.5551099704618503</v>
       </c>
       <c r="K25" s="56">
         <v>12918.4655</v>
@@ -61655,13 +61737,13 @@
         <v>4.7530246675390897</v>
       </c>
       <c r="M25" s="57">
-        <v>0.37836458207826601</v>
+        <v>0.63142660403435702</v>
       </c>
       <c r="N25" s="56">
-        <v>7472304.1046000002</v>
+        <v>7471899.3539000005</v>
       </c>
       <c r="O25" s="56">
-        <v>67468396.484799996</v>
+        <v>67467991.734099999</v>
       </c>
       <c r="P25" s="56">
         <v>15885</v>
@@ -61673,41 +61755,41 @@
         <v>-25.579761068165901</v>
       </c>
       <c r="S25" s="56">
-        <v>17.5865292917847</v>
+        <v>17.561049235127498</v>
       </c>
       <c r="T25" s="56">
         <v>16.084288587491201</v>
       </c>
       <c r="U25" s="58">
-        <v>8.5419964301611095</v>
+        <v>8.4092962092623207</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="12" thickBot="1">
       <c r="A26" s="82"/>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="72"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="56">
-        <v>647679.46900000004</v>
+        <v>646227.94350000005</v>
       </c>
       <c r="E26" s="56">
         <v>627019.38859999995</v>
       </c>
       <c r="F26" s="57">
-        <v>103.294966754717</v>
+        <v>103.063470643689</v>
       </c>
       <c r="G26" s="56">
         <v>909069.56330000004</v>
       </c>
       <c r="H26" s="57">
-        <v>-28.753585517826799</v>
+        <v>-28.913257071974002</v>
       </c>
       <c r="I26" s="56">
-        <v>112710.8912</v>
+        <v>123522.2197</v>
       </c>
       <c r="J26" s="57">
-        <v>17.402264020198501</v>
+        <v>19.1143420742529</v>
       </c>
       <c r="K26" s="56">
         <v>119533.9213</v>
@@ -61716,13 +61798,13 @@
         <v>13.1490400873264</v>
       </c>
       <c r="M26" s="57">
-        <v>-5.7080283368902002E-2</v>
+        <v>3.3365410894455001E-2</v>
       </c>
       <c r="N26" s="56">
-        <v>17470707.538699999</v>
+        <v>17469256.0132</v>
       </c>
       <c r="O26" s="56">
-        <v>128958025.29099999</v>
+        <v>128956573.76549999</v>
       </c>
       <c r="P26" s="56">
         <v>44417</v>
@@ -61734,41 +61816,41 @@
         <v>-18.4844647543541</v>
       </c>
       <c r="S26" s="56">
-        <v>14.581792309251</v>
+        <v>14.549112805907599</v>
       </c>
       <c r="T26" s="56">
         <v>18.576585186000798</v>
       </c>
       <c r="U26" s="58">
-        <v>-27.395760356671001</v>
+        <v>-27.681910463006702</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="12" thickBot="1">
       <c r="A27" s="82"/>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="72"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="56">
-        <v>207649.7072</v>
+        <v>207266.03030000001</v>
       </c>
       <c r="E27" s="56">
         <v>187902.1586</v>
       </c>
       <c r="F27" s="57">
-        <v>110.50948469519101</v>
+        <v>110.305294970677</v>
       </c>
       <c r="G27" s="56">
         <v>200027.32670000001</v>
       </c>
       <c r="H27" s="57">
-        <v>3.8106695848772798</v>
+        <v>3.6188573428552302</v>
       </c>
       <c r="I27" s="56">
-        <v>51873.577700000002</v>
+        <v>54171.540399999998</v>
       </c>
       <c r="J27" s="57">
-        <v>24.981291040317899</v>
+        <v>26.136236758909</v>
       </c>
       <c r="K27" s="56">
         <v>57996.733200000002</v>
@@ -61777,13 +61859,13 @@
         <v>28.9944049929654</v>
       </c>
       <c r="M27" s="57">
-        <v>-0.105577593118641</v>
+        <v>-6.5955314876253002E-2</v>
       </c>
       <c r="N27" s="56">
-        <v>5105696.6801000005</v>
+        <v>5105313.0032000002</v>
       </c>
       <c r="O27" s="56">
-        <v>43533930.886100002</v>
+        <v>43533547.209200002</v>
       </c>
       <c r="P27" s="56">
         <v>26053</v>
@@ -61795,41 +61877,41 @@
         <v>-19.410418213313498</v>
       </c>
       <c r="S27" s="56">
-        <v>7.9702800905845796</v>
+        <v>7.9555533067209101</v>
       </c>
       <c r="T27" s="56">
         <v>7.8435626917842098</v>
       </c>
       <c r="U27" s="58">
-        <v>1.5898738483489401</v>
+        <v>1.4077036582998199</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="12" thickBot="1">
       <c r="A28" s="82"/>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="72"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="56">
-        <v>854484.27590000001</v>
+        <v>854479.52679999999</v>
       </c>
       <c r="E28" s="56">
         <v>757787.83790000004</v>
       </c>
       <c r="F28" s="57">
-        <v>112.760357604573</v>
+        <v>112.759730898817</v>
       </c>
       <c r="G28" s="56">
         <v>858772.03949999996</v>
       </c>
       <c r="H28" s="57">
-        <v>-0.49929007964633099</v>
+        <v>-0.49984309019879303</v>
       </c>
       <c r="I28" s="56">
-        <v>7532.4041999999999</v>
+        <v>22573.098099999999</v>
       </c>
       <c r="J28" s="57">
-        <v>0.88151466474516105</v>
+        <v>2.64173656501</v>
       </c>
       <c r="K28" s="56">
         <v>-4213.5636000000004</v>
@@ -61838,13 +61920,13 @@
         <v>-0.49064983560168701</v>
       </c>
       <c r="M28" s="57">
-        <v>-2.78765646257244</v>
+        <v>-6.3572463223291598</v>
       </c>
       <c r="N28" s="56">
-        <v>24629958.522799999</v>
+        <v>24629953.773699999</v>
       </c>
       <c r="O28" s="56">
-        <v>186179970.15580001</v>
+        <v>186179965.40669999</v>
       </c>
       <c r="P28" s="56">
         <v>37615</v>
@@ -61856,41 +61938,41 @@
         <v>-17.249648011263599</v>
       </c>
       <c r="S28" s="56">
-        <v>22.716583168948599</v>
+        <v>22.7164569134654</v>
       </c>
       <c r="T28" s="56">
         <v>24.692841101284799</v>
       </c>
       <c r="U28" s="58">
-        <v>-8.6996266896227699</v>
+        <v>-8.7002308297816899</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="12" thickBot="1">
       <c r="A29" s="82"/>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="56">
-        <v>539712.80200000003</v>
+        <v>539708.71030000004</v>
       </c>
       <c r="E29" s="56">
         <v>557155.20479999995</v>
       </c>
       <c r="F29" s="57">
-        <v>96.869381700156396</v>
+        <v>96.868647308739995</v>
       </c>
       <c r="G29" s="56">
         <v>839272.10759999999</v>
       </c>
       <c r="H29" s="57">
-        <v>-35.692751240908798</v>
+        <v>-35.693238770514803</v>
       </c>
       <c r="I29" s="56">
-        <v>79435.076799999995</v>
+        <v>87039.026500000007</v>
       </c>
       <c r="J29" s="57">
-        <v>14.7180271628984</v>
+        <v>16.1270375739571</v>
       </c>
       <c r="K29" s="56">
         <v>100725.9528</v>
@@ -61899,13 +61981,13 @@
         <v>12.001584693197801</v>
       </c>
       <c r="M29" s="57">
-        <v>-0.21137428247787199</v>
+        <v>-0.13588281787888901</v>
       </c>
       <c r="N29" s="56">
-        <v>16045774.565300001</v>
+        <v>16045770.4736</v>
       </c>
       <c r="O29" s="56">
-        <v>138071260.67309999</v>
+        <v>138071256.58140001</v>
       </c>
       <c r="P29" s="56">
         <v>93329</v>
@@ -61917,41 +61999,41 @@
         <v>-10.1153786886509</v>
       </c>
       <c r="S29" s="56">
-        <v>5.78290565633404</v>
+        <v>5.7828618146556803</v>
       </c>
       <c r="T29" s="56">
         <v>6.07070273615071</v>
       </c>
       <c r="U29" s="58">
-        <v>-4.97668640852606</v>
+        <v>-4.97748226951476</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="12" thickBot="1">
       <c r="A30" s="82"/>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="72"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="56">
-        <v>1060328.2572999999</v>
+        <v>1058369.1311999999</v>
       </c>
       <c r="E30" s="56">
         <v>1082646.4971</v>
       </c>
       <c r="F30" s="57">
-        <v>97.938547821492804</v>
+        <v>97.757590684953101</v>
       </c>
       <c r="G30" s="56">
         <v>1683533.4036000001</v>
       </c>
       <c r="H30" s="57">
-        <v>-37.017688212622502</v>
+        <v>-37.134058110351297</v>
       </c>
       <c r="I30" s="56">
-        <v>117205.2055</v>
+        <v>132275.4142</v>
       </c>
       <c r="J30" s="57">
-        <v>11.0536717939074</v>
+        <v>12.4980415906522</v>
       </c>
       <c r="K30" s="56">
         <v>129311.26029999999</v>
@@ -61960,13 +62042,13 @@
         <v>7.6809441394798599</v>
       </c>
       <c r="M30" s="57">
-        <v>-9.3619494326435002E-2</v>
+        <v>2.2922627875741002E-2</v>
       </c>
       <c r="N30" s="56">
-        <v>32688914.2148</v>
+        <v>32686955.0887</v>
       </c>
       <c r="O30" s="56">
-        <v>214792189.35139999</v>
+        <v>214790230.22530001</v>
       </c>
       <c r="P30" s="56">
         <v>63610</v>
@@ -61978,41 +62060,41 @@
         <v>-25.359648916946298</v>
       </c>
       <c r="S30" s="56">
-        <v>16.669207000471602</v>
+        <v>16.6384079735891</v>
       </c>
       <c r="T30" s="56">
         <v>16.9348096254488</v>
       </c>
       <c r="U30" s="58">
-        <v>-1.59337288792252</v>
+        <v>-1.78143036479365</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="12" thickBot="1">
       <c r="A31" s="82"/>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="72"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="56">
-        <v>973939.60510000004</v>
+        <v>973231.32109999994</v>
       </c>
       <c r="E31" s="56">
         <v>1054204.5862</v>
       </c>
       <c r="F31" s="57">
-        <v>92.386204523229793</v>
+        <v>92.319017943957405</v>
       </c>
       <c r="G31" s="56">
         <v>1885461.6076</v>
       </c>
       <c r="H31" s="57">
-        <v>-48.344766015165597</v>
+        <v>-48.3823315639493</v>
       </c>
       <c r="I31" s="56">
-        <v>7856.3146999999999</v>
+        <v>16176.517400000001</v>
       </c>
       <c r="J31" s="57">
-        <v>0.80665317016175198</v>
+        <v>1.6621451703502901</v>
       </c>
       <c r="K31" s="56">
         <v>-77447.653399999996</v>
@@ -62021,13 +62103,13 @@
         <v>-4.1076229337060299</v>
       </c>
       <c r="M31" s="57">
-        <v>-1.10144031943</v>
+        <v>-1.20887033615405</v>
       </c>
       <c r="N31" s="56">
-        <v>28799878.811700001</v>
+        <v>28799170.5277</v>
       </c>
       <c r="O31" s="56">
-        <v>228911944.82800001</v>
+        <v>228911236.544</v>
       </c>
       <c r="P31" s="56">
         <v>31912</v>
@@ -62039,41 +62121,41 @@
         <v>-29.262075233303001</v>
       </c>
       <c r="S31" s="56">
-        <v>30.519541398220099</v>
+        <v>30.497346487214799</v>
       </c>
       <c r="T31" s="56">
         <v>45.0745216123955</v>
       </c>
       <c r="U31" s="58">
-        <v>-47.690691102666101</v>
+        <v>-47.7981752651555</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="12" thickBot="1">
       <c r="A32" s="82"/>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="72"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="56">
-        <v>95876.973100000003</v>
+        <v>95717.540099999998</v>
       </c>
       <c r="E32" s="56">
         <v>126832.93520000001</v>
       </c>
       <c r="F32" s="57">
-        <v>75.593120153542003</v>
+        <v>75.467416999429304</v>
       </c>
       <c r="G32" s="56">
         <v>104945.3558</v>
       </c>
       <c r="H32" s="57">
-        <v>-8.6410519368594905</v>
+        <v>-8.7929719515992009</v>
       </c>
       <c r="I32" s="56">
-        <v>21742.9594</v>
+        <v>22720.2186</v>
       </c>
       <c r="J32" s="57">
-        <v>22.677978556250402</v>
+        <v>23.7367347471145</v>
       </c>
       <c r="K32" s="56">
         <v>25353.932799999999</v>
@@ -62082,13 +62164,13 @@
         <v>24.159175607845199</v>
       </c>
       <c r="M32" s="57">
-        <v>-0.142422614609123</v>
+        <v>-0.103877935655016</v>
       </c>
       <c r="N32" s="56">
-        <v>3609314.2258000001</v>
+        <v>3609154.7927999999</v>
       </c>
       <c r="O32" s="56">
-        <v>22473483.358800001</v>
+        <v>22473323.925799999</v>
       </c>
       <c r="P32" s="56">
         <v>19402</v>
@@ -62100,21 +62182,21 @@
         <v>-21.465290427039101</v>
       </c>
       <c r="S32" s="56">
-        <v>4.9416025718998</v>
+        <v>4.9333852231728699</v>
       </c>
       <c r="T32" s="56">
         <v>5.0105041084800597</v>
       </c>
       <c r="U32" s="58">
-        <v>-1.39431562084869</v>
+        <v>-1.5632042060075899</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="12" thickBot="1">
       <c r="A33" s="82"/>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="72"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="56">
         <v>-18.3628</v>
       </c>
@@ -62150,30 +62232,30 @@
     </row>
     <row r="34" spans="1:21" ht="12" thickBot="1">
       <c r="A34" s="82"/>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="72"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="56">
-        <v>145890.8057</v>
+        <v>145884.4198</v>
       </c>
       <c r="E34" s="56">
         <v>123886.2227</v>
       </c>
       <c r="F34" s="57">
-        <v>117.761929067194</v>
+        <v>117.756774418145</v>
       </c>
       <c r="G34" s="56">
         <v>140440.37539999999</v>
       </c>
       <c r="H34" s="57">
-        <v>3.88095680068938</v>
+        <v>3.8764097464809399</v>
       </c>
       <c r="I34" s="56">
-        <v>20501.626799999998</v>
+        <v>22500.5586</v>
       </c>
       <c r="J34" s="57">
-        <v>14.0527202530899</v>
+        <v>15.4235514874358</v>
       </c>
       <c r="K34" s="56">
         <v>14932.5026</v>
@@ -62182,13 +62264,13 @@
         <v>10.6326279443995</v>
       </c>
       <c r="M34" s="57">
-        <v>0.37295317129226502</v>
+        <v>0.50681765828053504</v>
       </c>
       <c r="N34" s="56">
-        <v>4215729.9153000005</v>
+        <v>4215723.5294000003</v>
       </c>
       <c r="O34" s="56">
-        <v>35858902.810400002</v>
+        <v>35858896.424500003</v>
       </c>
       <c r="P34" s="56">
         <v>10153</v>
@@ -62200,42 +62282,42 @@
         <v>-21.5257381357242</v>
       </c>
       <c r="S34" s="56">
-        <v>14.369231330641201</v>
+        <v>14.3686023638334</v>
       </c>
       <c r="T34" s="56">
         <v>14.6876945277477</v>
       </c>
       <c r="U34" s="58">
-        <v>-2.2162855463773798</v>
+        <v>-2.2207599308165502</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A35" s="82"/>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="72"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="56">
-        <v>10111.462299999999</v>
+        <v>10078.9215</v>
       </c>
       <c r="E35" s="59"/>
       <c r="F35" s="59"/>
       <c r="G35" s="59"/>
       <c r="H35" s="59"/>
       <c r="I35" s="56">
-        <v>298.22000000000003</v>
+        <v>489.63650000000001</v>
       </c>
       <c r="J35" s="57">
-        <v>2.9493261325812399</v>
+        <v>4.8580247400478296</v>
       </c>
       <c r="K35" s="59"/>
       <c r="L35" s="59"/>
       <c r="M35" s="59"/>
       <c r="N35" s="56">
-        <v>180688.50959999999</v>
+        <v>180655.9688</v>
       </c>
       <c r="O35" s="56">
-        <v>402968.55949999997</v>
+        <v>402936.01870000002</v>
       </c>
       <c r="P35" s="56">
         <v>1092</v>
@@ -62247,21 +62329,21 @@
         <v>-20.350109409190399</v>
       </c>
       <c r="S35" s="56">
-        <v>9.2595808608058601</v>
+        <v>9.2297815934065905</v>
       </c>
       <c r="T35" s="56">
         <v>6.03811611962072</v>
       </c>
       <c r="U35" s="58">
-        <v>34.790610823660799</v>
+        <v>34.580075828293502</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A36" s="82"/>
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="72"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="56">
         <v>253059.98</v>
       </c>
@@ -62315,10 +62397,10 @@
     </row>
     <row r="37" spans="1:21" ht="12" thickBot="1">
       <c r="A37" s="82"/>
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="72"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="56">
         <v>447716.28</v>
       </c>
@@ -62372,10 +62454,10 @@
     </row>
     <row r="38" spans="1:21" ht="12" thickBot="1">
       <c r="A38" s="82"/>
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="72"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="56">
         <v>708780.39</v>
       </c>
@@ -62429,10 +62511,10 @@
     </row>
     <row r="39" spans="1:21" ht="12" thickBot="1">
       <c r="A39" s="82"/>
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="72"/>
+      <c r="C39" s="70"/>
       <c r="D39" s="56">
         <v>389240.41</v>
       </c>
@@ -62486,10 +62568,10 @@
     </row>
     <row r="40" spans="1:21" ht="12" thickBot="1">
       <c r="A40" s="82"/>
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="72"/>
+      <c r="C40" s="70"/>
       <c r="D40" s="56">
         <v>0.55000000000000004</v>
       </c>
@@ -62535,10 +62617,10 @@
     </row>
     <row r="41" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A41" s="82"/>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="72"/>
+      <c r="C41" s="70"/>
       <c r="D41" s="56">
         <v>34757.264600000002</v>
       </c>
@@ -62592,30 +62674,30 @@
     </row>
     <row r="42" spans="1:21" ht="12" thickBot="1">
       <c r="A42" s="82"/>
-      <c r="B42" s="71" t="s">
+      <c r="B42" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="72"/>
+      <c r="C42" s="70"/>
       <c r="D42" s="56">
-        <v>449577.54330000002</v>
+        <v>449201.21830000001</v>
       </c>
       <c r="E42" s="56">
         <v>1208905.3822000001</v>
       </c>
       <c r="F42" s="57">
-        <v>37.188811458663999</v>
+        <v>37.157682058006102</v>
       </c>
       <c r="G42" s="56">
         <v>1053442.3195</v>
       </c>
       <c r="H42" s="57">
-        <v>-57.323003359748697</v>
+        <v>-57.358726720490402</v>
       </c>
       <c r="I42" s="56">
-        <v>18732.9823</v>
+        <v>20946.657299999999</v>
       </c>
       <c r="J42" s="57">
-        <v>4.1667967137539197</v>
+        <v>4.6630900466549301</v>
       </c>
       <c r="K42" s="56">
         <v>-6489.9494000000004</v>
@@ -62624,13 +62706,13 @@
         <v>-0.61607069318046304</v>
       </c>
       <c r="M42" s="57">
-        <v>-3.8864604553003099</v>
+        <v>-4.22755325334278</v>
       </c>
       <c r="N42" s="56">
-        <v>12493218.646500001</v>
+        <v>12492842.3215</v>
       </c>
       <c r="O42" s="56">
-        <v>89584297.188999996</v>
+        <v>89583920.863999993</v>
       </c>
       <c r="P42" s="56">
         <v>1869</v>
@@ -62642,23 +62724,23 @@
         <v>-25.180144115292201</v>
       </c>
       <c r="S42" s="56">
-        <v>240.544431942215</v>
+        <v>240.343080952381</v>
       </c>
       <c r="T42" s="56">
         <v>238.630020456365</v>
       </c>
       <c r="U42" s="58">
-        <v>0.79586605700766599</v>
+        <v>0.71275631868730005</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="12" thickBot="1">
       <c r="A43" s="82"/>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="72"/>
+      <c r="C43" s="70"/>
       <c r="D43" s="56">
-        <v>218571.92</v>
+        <v>218612.94</v>
       </c>
       <c r="E43" s="59"/>
       <c r="F43" s="59"/>
@@ -62666,13 +62748,13 @@
         <v>205383.77</v>
       </c>
       <c r="H43" s="57">
-        <v>6.4212230596409903</v>
+        <v>6.4411954264935503</v>
       </c>
       <c r="I43" s="56">
         <v>-52609.25</v>
       </c>
       <c r="J43" s="57">
-        <v>-24.069537386138201</v>
+        <v>-24.0650210367236</v>
       </c>
       <c r="K43" s="56">
         <v>-23539.4</v>
@@ -62684,10 +62766,10 @@
         <v>1.2349443911059801</v>
       </c>
       <c r="N43" s="56">
-        <v>3729129.76</v>
+        <v>3729170.78</v>
       </c>
       <c r="O43" s="56">
-        <v>37206413.82</v>
+        <v>37206454.840000004</v>
       </c>
       <c r="P43" s="56">
         <v>145</v>
@@ -62699,21 +62781,21 @@
         <v>-44.015444015443997</v>
       </c>
       <c r="S43" s="56">
-        <v>1507.39255172414</v>
+        <v>1507.6754482758599</v>
       </c>
       <c r="T43" s="56">
         <v>1391.7472200772199</v>
       </c>
       <c r="U43" s="58">
-        <v>7.6718789352278396</v>
+        <v>7.6892031591556602</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="12" thickBot="1">
       <c r="A44" s="82"/>
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="72"/>
+      <c r="C44" s="70"/>
       <c r="D44" s="56">
         <v>128763.3</v>
       </c>
@@ -62767,10 +62849,10 @@
     </row>
     <row r="45" spans="1:21" ht="12" thickBot="1">
       <c r="A45" s="82"/>
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="72"/>
+      <c r="C45" s="70"/>
       <c r="D45" s="59"/>
       <c r="E45" s="59"/>
       <c r="F45" s="59"/>
@@ -62796,10 +62878,10 @@
     </row>
     <row r="46" spans="1:21" ht="12" thickBot="1">
       <c r="A46" s="83"/>
-      <c r="B46" s="71" t="s">
+      <c r="B46" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="72"/>
+      <c r="C46" s="70"/>
       <c r="D46" s="61">
         <v>17114.9503</v>
       </c>
@@ -62853,6 +62935,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="A1:U4"/>
     <mergeCell ref="W1:W4"/>
     <mergeCell ref="B6:C6"/>
@@ -62869,34 +62979,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62910,8 +62992,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -62958,22 +63040,22 @@
         <v>12</v>
       </c>
       <c r="C2" s="37">
-        <v>98082</v>
+        <v>99217</v>
       </c>
       <c r="D2" s="37">
-        <v>734225.98155128199</v>
+        <v>934632.441380342</v>
       </c>
       <c r="E2" s="37">
-        <v>746413.32310000004</v>
+        <v>751283.95181794895</v>
       </c>
       <c r="F2" s="37">
-        <v>-12187.341548717901</v>
+        <v>-12857.2882153846</v>
       </c>
       <c r="G2" s="37">
-        <v>746413.32310000004</v>
+        <v>751283.95181794895</v>
       </c>
       <c r="H2" s="37">
-        <v>-1.65988971446752E-2</v>
+        <v>-1.74117334179913E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -62984,22 +63066,22 @@
         <v>13</v>
       </c>
       <c r="C3" s="37">
-        <v>4274</v>
+        <v>8181</v>
       </c>
       <c r="D3" s="37">
-        <v>32634.142873504301</v>
+        <v>81106.107848717904</v>
       </c>
       <c r="E3" s="37">
-        <v>26562.853452991501</v>
+        <v>62777.588860683798</v>
       </c>
       <c r="F3" s="37">
-        <v>6071.2894205128196</v>
+        <v>8811.5459111111104</v>
       </c>
       <c r="G3" s="37">
-        <v>26562.853452991501</v>
+        <v>62777.588860683798</v>
       </c>
       <c r="H3" s="37">
-        <v>0.18604102592938401</v>
+        <v>0.123084961694253</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -63010,22 +63092,22 @@
         <v>14</v>
       </c>
       <c r="C4" s="37">
-        <v>119428</v>
+        <v>122053</v>
       </c>
       <c r="D4" s="37">
-        <v>117407.00273333301</v>
+        <v>154119.38504102599</v>
       </c>
       <c r="E4" s="37">
-        <v>103963.681762569</v>
+        <v>110708.066036073</v>
       </c>
       <c r="F4" s="37">
-        <v>13443.3209707645</v>
+        <v>12555.7292613628</v>
       </c>
       <c r="G4" s="37">
-        <v>103963.681762569</v>
+        <v>110708.066036073</v>
       </c>
       <c r="H4" s="37">
-        <v>0.11450186665013801</v>
+        <v>0.101860641488977</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -63036,22 +63118,22 @@
         <v>15</v>
       </c>
       <c r="C5" s="37">
-        <v>3903</v>
+        <v>3910</v>
       </c>
       <c r="D5" s="37">
-        <v>62399.332178882098</v>
+        <v>75284.309487708902</v>
       </c>
       <c r="E5" s="37">
-        <v>57502.214748233899</v>
+        <v>57586.089674487601</v>
       </c>
       <c r="F5" s="37">
-        <v>4897.1174306482098</v>
+        <v>4877.6776454579804</v>
       </c>
       <c r="G5" s="37">
-        <v>57502.214748233899</v>
+        <v>57586.089674487601</v>
       </c>
       <c r="H5" s="37">
-        <v>7.8480285920520698E-2</v>
+        <v>7.8088111792457907E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -63062,22 +63144,22 @@
         <v>16</v>
       </c>
       <c r="C6" s="37">
-        <v>3988</v>
+        <v>4989</v>
       </c>
       <c r="D6" s="37">
-        <v>189600.65293504301</v>
+        <v>309525.58823418798</v>
       </c>
       <c r="E6" s="37">
-        <v>181640.48121794901</v>
+        <v>221889.31429487199</v>
       </c>
       <c r="F6" s="37">
-        <v>7960.1717170940201</v>
+        <v>-961.88845384615399</v>
       </c>
       <c r="G6" s="37">
-        <v>181640.48121794901</v>
+        <v>221889.31429487199</v>
       </c>
       <c r="H6" s="37">
-        <v>4.1983883461736697E-2</v>
+        <v>-4.3538662082556797E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -63088,22 +63170,22 @@
         <v>17</v>
       </c>
       <c r="C7" s="37">
-        <v>26052</v>
+        <v>27471</v>
       </c>
       <c r="D7" s="37">
-        <v>246603.29236495699</v>
+        <v>345091.14774957299</v>
       </c>
       <c r="E7" s="37">
-        <v>239190.913376068</v>
+        <v>260479.130128205</v>
       </c>
       <c r="F7" s="37">
-        <v>7412.3789888888896</v>
+        <v>-799.61485726495698</v>
       </c>
       <c r="G7" s="37">
-        <v>239190.913376068</v>
+        <v>260479.130128205</v>
       </c>
       <c r="H7" s="37">
-        <v>3.0057907653232099E-2</v>
+        <v>-3.0792373300245401E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -63114,22 +63196,22 @@
         <v>18</v>
       </c>
       <c r="C8" s="37">
-        <v>22828</v>
+        <v>35185</v>
       </c>
       <c r="D8" s="37">
-        <v>82277.416282051301</v>
+        <v>98296.2114957265</v>
       </c>
       <c r="E8" s="37">
-        <v>64670.478289743602</v>
+        <v>77320.554870940206</v>
       </c>
       <c r="F8" s="37">
-        <v>17606.937992307699</v>
+        <v>19307.0070521368</v>
       </c>
       <c r="G8" s="37">
-        <v>64670.478289743602</v>
+        <v>77320.554870940206</v>
       </c>
       <c r="H8" s="37">
-        <v>0.21399478481373499</v>
+        <v>0.19980848805340501</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -63140,22 +63222,22 @@
         <v>19</v>
       </c>
       <c r="C9" s="37">
-        <v>11287</v>
+        <v>16522</v>
       </c>
       <c r="D9" s="37">
-        <v>80957.715841880301</v>
+        <v>112783.863790598</v>
       </c>
       <c r="E9" s="37">
-        <v>80015.469035897404</v>
+        <v>96214.622540170894</v>
       </c>
       <c r="F9" s="37">
-        <v>942.24680598290604</v>
+        <v>-3389.84421965812</v>
       </c>
       <c r="G9" s="37">
-        <v>80015.469035897404</v>
+        <v>96214.622540170894</v>
       </c>
       <c r="H9" s="37">
-        <v>1.1638752355899199E-2</v>
+        <v>-3.6518742958409199E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -63166,22 +63248,22 @@
         <v>21</v>
       </c>
       <c r="C10" s="37">
-        <v>247960</v>
+        <v>247965</v>
       </c>
       <c r="D10" s="37">
-        <v>876691.47140000004</v>
+        <v>905587.546885969</v>
       </c>
       <c r="E10" s="37">
-        <v>877609.41440000001</v>
+        <v>877643.01431452995</v>
       </c>
       <c r="F10" s="37">
-        <v>-917.94299999999998</v>
+        <v>-909.77368376068398</v>
       </c>
       <c r="G10" s="37">
-        <v>877609.41440000001</v>
+        <v>877643.01431452995</v>
       </c>
       <c r="H10" s="37">
-        <v>-1.0470536442360101E-3</v>
+        <v>-1.0376858565396101E-3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -63195,7 +63277,7 @@
         <v>55515</v>
       </c>
       <c r="D11" s="37">
-        <v>538150.66057008505</v>
+        <v>569096.29304871801</v>
       </c>
       <c r="E11" s="37">
         <v>514309.26228717901</v>
@@ -63218,22 +63300,22 @@
         <v>23</v>
       </c>
       <c r="C12" s="37">
-        <v>236330.837</v>
+        <v>236780.96599999999</v>
       </c>
       <c r="D12" s="37">
-        <v>1549488.8880581199</v>
+        <v>1588504.5869449701</v>
       </c>
       <c r="E12" s="37">
-        <v>1444066.0795162399</v>
+        <v>1453395.1088324799</v>
       </c>
       <c r="F12" s="37">
-        <v>105422.80854188</v>
+        <v>107056.589225641</v>
       </c>
       <c r="G12" s="37">
-        <v>1444066.0795162399</v>
+        <v>1453395.1088324799</v>
       </c>
       <c r="H12" s="37">
-        <v>6.8037150414160294E-2</v>
+        <v>6.8606153819990703E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -63244,22 +63326,22 @@
         <v>24</v>
       </c>
       <c r="C13" s="37">
-        <v>12707</v>
+        <v>12748</v>
       </c>
       <c r="D13" s="37">
-        <v>447852.78518632503</v>
+        <v>453129.964673504</v>
       </c>
       <c r="E13" s="37">
-        <v>456472.61295213702</v>
+        <v>456880.82910598302</v>
       </c>
       <c r="F13" s="37">
-        <v>-8619.8277658119696</v>
+        <v>-8553.8387914529903</v>
       </c>
       <c r="G13" s="37">
-        <v>456472.61295213702</v>
+        <v>456880.82910598302</v>
       </c>
       <c r="H13" s="37">
-        <v>-1.9247011631792699E-2</v>
+        <v>-1.9079464266587898E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -63273,7 +63355,7 @@
         <v>85812</v>
       </c>
       <c r="D14" s="37">
-        <v>1057356.0828</v>
+        <v>1072250.3946523599</v>
       </c>
       <c r="E14" s="37">
         <v>975527.70860000001</v>
@@ -63299,7 +63381,7 @@
         <v>51811</v>
       </c>
       <c r="D15" s="37">
-        <v>296200.96241946903</v>
+        <v>301638.53108144598</v>
       </c>
       <c r="E15" s="37">
         <v>261031.93836460201</v>
@@ -63325,7 +63407,7 @@
         <v>160143.24799999999</v>
       </c>
       <c r="D16" s="37">
-        <v>1245321.4152085499</v>
+        <v>1264067.7811735999</v>
       </c>
       <c r="E16" s="37">
         <v>1217809.72665726</v>
@@ -63348,22 +63430,22 @@
         <v>29</v>
       </c>
       <c r="C17" s="37">
-        <v>226753</v>
+        <v>227176</v>
       </c>
       <c r="D17" s="37">
-        <v>2812446.1078145299</v>
+        <v>3025268.1255068402</v>
       </c>
       <c r="E17" s="37">
-        <v>2921327.49073675</v>
+        <v>2928711.2548393202</v>
       </c>
       <c r="F17" s="37">
-        <v>-108881.38292222199</v>
+        <v>-108680.206853846</v>
       </c>
       <c r="G17" s="37">
-        <v>2921327.49073675</v>
+        <v>2928711.2548393202</v>
       </c>
       <c r="H17" s="37">
-        <v>-3.8714122421649101E-2</v>
+        <v>-3.8538656136954001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -63374,22 +63456,22 @@
         <v>31</v>
       </c>
       <c r="C18" s="37">
-        <v>24349.776999999998</v>
+        <v>27887.830999999998</v>
       </c>
       <c r="D18" s="37">
-        <v>229418.010257749</v>
+        <v>272562.595807412</v>
       </c>
       <c r="E18" s="37">
-        <v>198783.64229798099</v>
+        <v>234349.03394921901</v>
       </c>
       <c r="F18" s="37">
-        <v>30634.3679597683</v>
+        <v>35057.343988115601</v>
       </c>
       <c r="G18" s="37">
-        <v>198783.64229798099</v>
+        <v>234349.03394921901</v>
       </c>
       <c r="H18" s="37">
-        <v>0.13353078917104499</v>
+        <v>0.13012811447348199</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -63400,22 +63482,22 @@
         <v>32</v>
       </c>
       <c r="C19" s="37">
-        <v>14319.115</v>
+        <v>16971.995999999999</v>
       </c>
       <c r="D19" s="37">
-        <v>231539.38874948901</v>
+        <v>278957.24411285802</v>
       </c>
       <c r="E19" s="37">
-        <v>214555.433102562</v>
+        <v>257881.74729105301</v>
       </c>
       <c r="F19" s="37">
-        <v>16983.955646927301</v>
+        <v>17806.324377821798</v>
       </c>
       <c r="G19" s="37">
-        <v>214555.433102562</v>
+        <v>257881.74729105301</v>
       </c>
       <c r="H19" s="37">
-        <v>7.3352338617870494E-2</v>
+        <v>6.4588664536813001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -63426,22 +63508,22 @@
         <v>33</v>
       </c>
       <c r="C20" s="37">
-        <v>58235.175000000003</v>
+        <v>60439.271000000001</v>
       </c>
       <c r="D20" s="37">
-        <v>587824.44576063799</v>
+        <v>646227.90426465205</v>
       </c>
       <c r="E20" s="37">
-        <v>484637.973515502</v>
+        <v>522705.72142308101</v>
       </c>
       <c r="F20" s="37">
-        <v>103186.472245136</v>
+        <v>112710.854205154</v>
       </c>
       <c r="G20" s="37">
-        <v>484637.973515502</v>
+        <v>522705.72142308101</v>
       </c>
       <c r="H20" s="37">
-        <v>0.17553960708730701</v>
+        <v>0.177381041868033</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -63452,22 +63534,22 @@
         <v>34</v>
       </c>
       <c r="C21" s="37">
-        <v>30528.499</v>
+        <v>35816.756000000001</v>
       </c>
       <c r="D21" s="37">
-        <v>151567.07188136299</v>
+        <v>207265.829442516</v>
       </c>
       <c r="E21" s="37">
-        <v>108482.800203361</v>
+        <v>153094.48665111</v>
       </c>
       <c r="F21" s="37">
-        <v>43084.271678002398</v>
+        <v>51873.386406412203</v>
       </c>
       <c r="G21" s="37">
-        <v>108482.800203361</v>
+        <v>153094.48665111</v>
       </c>
       <c r="H21" s="37">
-        <v>0.28425878486143802</v>
+        <v>0.25308057127496503</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -63478,22 +63560,22 @@
         <v>35</v>
       </c>
       <c r="C22" s="37">
-        <v>25439.295999999998</v>
+        <v>27465.819</v>
       </c>
       <c r="D22" s="37">
-        <v>770653.47940707998</v>
+        <v>854480.52774433605</v>
       </c>
       <c r="E22" s="37">
-        <v>764330.42788230104</v>
+        <v>831906.43123805302</v>
       </c>
       <c r="F22" s="37">
-        <v>6323.0515247787598</v>
+        <v>7533.4037699114997</v>
       </c>
       <c r="G22" s="37">
-        <v>764330.42788230104</v>
+        <v>831906.43123805302</v>
       </c>
       <c r="H22" s="37">
-        <v>8.2047920287643995E-3</v>
+        <v>8.9743224656952704E-3</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -63504,22 +63586,22 @@
         <v>36</v>
       </c>
       <c r="C23" s="37">
-        <v>134921.88</v>
+        <v>139856.46100000001</v>
       </c>
       <c r="D23" s="37">
-        <v>516220.769087611</v>
+        <v>539709.00415884901</v>
       </c>
       <c r="E23" s="37">
-        <v>438641.160588898</v>
+        <v>452669.69337790099</v>
       </c>
       <c r="F23" s="37">
-        <v>77579.608498712201</v>
+        <v>79435.359239797806</v>
       </c>
       <c r="G23" s="37">
-        <v>438641.160588898</v>
+        <v>452669.69337790099</v>
       </c>
       <c r="H23" s="37">
-        <v>0.15028378001107801</v>
+        <v>0.14928510610642401</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -63530,22 +63612,22 @@
         <v>37</v>
       </c>
       <c r="C24" s="37">
-        <v>125473.92200000001</v>
+        <v>127435.66099999999</v>
       </c>
       <c r="D24" s="37">
-        <v>1029126.86732566</v>
+        <v>1058369.1087592901</v>
       </c>
       <c r="E24" s="37">
-        <v>913433.62120759604</v>
+        <v>926093.72949173301</v>
       </c>
       <c r="F24" s="37">
-        <v>115693.246118068</v>
+        <v>117205.17376313399</v>
       </c>
       <c r="G24" s="37">
-        <v>913433.62120759604</v>
+        <v>926093.72949173301</v>
       </c>
       <c r="H24" s="37">
-        <v>0.11241883755179199</v>
+        <v>0.112340934508298</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -63556,22 +63638,22 @@
         <v>38</v>
       </c>
       <c r="C25" s="37">
-        <v>220202.70800000001</v>
+        <v>220574.068</v>
       </c>
       <c r="D25" s="37">
-        <v>963200.34341769898</v>
+        <v>973231.28376646002</v>
       </c>
       <c r="E25" s="37">
-        <v>955319.88212389406</v>
+        <v>957054.72344336298</v>
       </c>
       <c r="F25" s="37">
-        <v>7880.4612938053097</v>
+        <v>7856.35932300885</v>
       </c>
       <c r="G25" s="37">
-        <v>955319.88212389406</v>
+        <v>957054.72344336298</v>
       </c>
       <c r="H25" s="37">
-        <v>8.1815391238787005E-3</v>
+        <v>8.1420552249072495E-3</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -63582,22 +63664,22 @@
         <v>39</v>
       </c>
       <c r="C26" s="37">
-        <v>50484.661999999997</v>
+        <v>55654.218999999997</v>
       </c>
       <c r="D26" s="37">
-        <v>74584.826020996901</v>
+        <v>95717.453527388207</v>
       </c>
       <c r="E26" s="37">
-        <v>55126.712379380697</v>
+        <v>72997.340134027007</v>
       </c>
       <c r="F26" s="37">
-        <v>19458.113641616201</v>
+        <v>21742.8560503464</v>
       </c>
       <c r="G26" s="37">
-        <v>55126.712379380697</v>
+        <v>72997.340134027007</v>
       </c>
       <c r="H26" s="37">
-        <v>0.26088568787622302</v>
+        <v>0.229499799726325</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -63637,7 +63719,7 @@
         <v>7791.3819999999996</v>
       </c>
       <c r="D28" s="37">
-        <v>143885.48740000001</v>
+        <v>145884.419546121</v>
       </c>
       <c r="E28" s="37">
         <v>123383.8551</v>
@@ -63663,7 +63745,7 @@
         <v>1591.0319999999999</v>
       </c>
       <c r="D29" s="37">
-        <v>9887.5087000000003</v>
+        <v>10078.925093162399</v>
       </c>
       <c r="E29" s="37">
         <v>9589.2921000000006</v>
@@ -63712,22 +63794,22 @@
         <v>76</v>
       </c>
       <c r="C31" s="40">
-        <v>2249</v>
+        <v>2255</v>
       </c>
       <c r="D31" s="40">
-        <v>443262.74927692302</v>
+        <v>449201.21081538498</v>
       </c>
       <c r="E31" s="40">
-        <v>424669.17728205101</v>
+        <v>428254.56189743598</v>
       </c>
       <c r="F31" s="40">
-        <v>18593.5719948718</v>
+        <v>18732.9737042735</v>
       </c>
       <c r="G31" s="40">
-        <v>424669.17728205101</v>
+        <v>428254.56189743598</v>
       </c>
       <c r="H31" s="40">
-        <v>4.19470664412986E-2</v>
+        <v>4.1909387202612301E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
